--- a/CSS_テスト仕様書.xlsx
+++ b/CSS_テスト仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="テスト観点" sheetId="2" r:id="rId1"/>
@@ -671,7 +671,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="680">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3901,10 +3901,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>06/23 クリックしてもコピーされなかった</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -6285,53 +6281,8 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>未ログイン
-ファイル : テスト用HTML/template.html
-HTML形式
-1MG未満</t>
-    <rPh sb="0" eb="1">
-      <t>ミラ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ケイシk</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ミマn</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ファイル名が日本語でもアップロードできることを確認</t>
-    <rPh sb="6" eb="9">
-      <t>ニホn</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>未ログイン
-ファイル : テスト用HTML/aaa[半角スペース]bbb.html
-HTML形式
-1MG未満</t>
-    <rPh sb="0" eb="1">
-      <t>ミラ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ハn</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ケイシk</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ミマn</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -6421,28 +6372,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>半角スペースが入っているファイル名の場合は、半角スペースをトリミングしたファイル名で保存されていることを確認</t>
-    <rPh sb="0" eb="2">
-      <t>ハn</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハイッt</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バア</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハn</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ホゾn</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>未ログイン
 ファイル : テスト用HTML/template.html
 [要件]
@@ -6512,6 +6441,72 @@
       <t>カk</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル名が日本語でもアップロードできることを確認
+空白が残った状態で保存されていた。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>生のURLを入力してもらう仕様にしているので、エンコードされたURLの場合はエラーメッセージを出す。</t>
+    <rPh sb="0" eb="1">
+      <t>ナm</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウn</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バア</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ダs</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://ec2-52-11-169-235.us-west-2.compute.amazonaws.com:9000/colors?type=primary</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://ec2-52-11-169-235.us-west-2.compute.amazonaws.com:9000/colors?type=safe</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://ec2-52-11-169-235.us-west-2.compute.amazonaws.com:9000/colors?type=standard</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>06/23 クリックしてもコピーされなかった (修正済み)</t>
+    <rPh sb="24" eb="26">
+      <t>シュウセ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スm</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -9541,7 +9536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:BN162"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="W85" sqref="W85:BD86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="3.140625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11614,7 +11611,7 @@
       <c r="U33" s="199"/>
       <c r="V33" s="200"/>
       <c r="W33" s="189" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="X33" s="190"/>
       <c r="Y33" s="190"/>
@@ -12286,7 +12283,7 @@
       <c r="U43" s="199"/>
       <c r="V43" s="200"/>
       <c r="W43" s="189" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="X43" s="190"/>
       <c r="Y43" s="190"/>
@@ -12690,7 +12687,7 @@
       <c r="U49" s="199"/>
       <c r="V49" s="200"/>
       <c r="W49" s="189" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="X49" s="190"/>
       <c r="Y49" s="190"/>
@@ -12824,7 +12821,7 @@
       <c r="U51" s="199"/>
       <c r="V51" s="200"/>
       <c r="W51" s="189" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="X51" s="190"/>
       <c r="Y51" s="190"/>
@@ -13362,7 +13359,7 @@
       <c r="U59" s="199"/>
       <c r="V59" s="200"/>
       <c r="W59" s="189" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="X59" s="190"/>
       <c r="Y59" s="190"/>
@@ -13496,7 +13493,7 @@
       <c r="U61" s="199"/>
       <c r="V61" s="200"/>
       <c r="W61" s="189" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="X61" s="190"/>
       <c r="Y61" s="190"/>
@@ -13630,7 +13627,7 @@
       <c r="U63" s="199"/>
       <c r="V63" s="200"/>
       <c r="W63" s="189" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X63" s="190"/>
       <c r="Y63" s="190"/>
@@ -13754,7 +13751,7 @@
       <c r="K65" s="214"/>
       <c r="L65" s="215"/>
       <c r="M65" s="227" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N65" s="227"/>
       <c r="O65" s="227"/>
@@ -13766,7 +13763,7 @@
       <c r="U65" s="227"/>
       <c r="V65" s="227"/>
       <c r="W65" s="189" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="X65" s="190"/>
       <c r="Y65" s="190"/>
@@ -13900,7 +13897,7 @@
       <c r="U67" s="227"/>
       <c r="V67" s="227"/>
       <c r="W67" s="189" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="X67" s="190"/>
       <c r="Y67" s="190"/>
@@ -14034,7 +14031,7 @@
       <c r="U69" s="227"/>
       <c r="V69" s="227"/>
       <c r="W69" s="189" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="X69" s="190"/>
       <c r="Y69" s="190"/>
@@ -14302,7 +14299,7 @@
       <c r="U73" s="227"/>
       <c r="V73" s="227"/>
       <c r="W73" s="189" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X73" s="190"/>
       <c r="Y73" s="190"/>
@@ -14426,7 +14423,7 @@
       <c r="K75" s="214"/>
       <c r="L75" s="215"/>
       <c r="M75" s="195" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N75" s="196"/>
       <c r="O75" s="196"/>
@@ -14438,7 +14435,7 @@
       <c r="U75" s="196"/>
       <c r="V75" s="197"/>
       <c r="W75" s="189" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="X75" s="190"/>
       <c r="Y75" s="190"/>
@@ -14572,7 +14569,7 @@
       <c r="U77" s="199"/>
       <c r="V77" s="200"/>
       <c r="W77" s="189" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X77" s="190"/>
       <c r="Y77" s="190"/>
@@ -14706,7 +14703,7 @@
       <c r="U79" s="199"/>
       <c r="V79" s="200"/>
       <c r="W79" s="189" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X79" s="190"/>
       <c r="Y79" s="190"/>
@@ -14840,7 +14837,7 @@
       <c r="U81" s="199"/>
       <c r="V81" s="200"/>
       <c r="W81" s="189" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="X81" s="190"/>
       <c r="Y81" s="190"/>
@@ -20682,7 +20679,7 @@
       <c r="BH2" s="28"/>
       <c r="BI2" s="29"/>
       <c r="BJ2" s="334" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BK2" s="335"/>
       <c r="BL2" s="335"/>
@@ -20690,7 +20687,7 @@
     </row>
     <row r="4" spans="1:65" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="297" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B4" s="297"/>
       <c r="C4" s="300" t="s">
@@ -20936,7 +20933,7 @@
       <c r="P7" s="295"/>
       <c r="Q7" s="296"/>
       <c r="R7" s="231" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S7" s="232"/>
       <c r="T7" s="232"/>
@@ -21002,7 +20999,7 @@
       <c r="K8" s="138"/>
       <c r="L8" s="139"/>
       <c r="M8" s="245" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N8" s="246"/>
       <c r="O8" s="246"/>
@@ -21083,7 +21080,7 @@
       <c r="P9" s="232"/>
       <c r="Q9" s="233"/>
       <c r="R9" s="231" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S9" s="232"/>
       <c r="T9" s="232"/>
@@ -21122,12 +21119,12 @@
       <c r="AW9" s="238"/>
       <c r="AX9" s="239"/>
       <c r="AY9" s="240" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AZ9" s="241"/>
       <c r="BA9" s="242"/>
       <c r="BB9" s="243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BC9" s="244"/>
       <c r="BD9" s="251"/>
@@ -21165,7 +21162,7 @@
       <c r="P10" s="261"/>
       <c r="Q10" s="262"/>
       <c r="R10" s="231" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S10" s="232"/>
       <c r="T10" s="232"/>
@@ -21204,12 +21201,12 @@
       <c r="AW10" s="238"/>
       <c r="AX10" s="239"/>
       <c r="AY10" s="240" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AZ10" s="241"/>
       <c r="BA10" s="242"/>
       <c r="BB10" s="243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BC10" s="244"/>
       <c r="BD10" s="46"/>
@@ -21247,7 +21244,7 @@
       <c r="P11" s="60"/>
       <c r="Q11" s="61"/>
       <c r="R11" s="231" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S11" s="232"/>
       <c r="T11" s="232"/>
@@ -21291,11 +21288,11 @@
       <c r="AZ11" s="241"/>
       <c r="BA11" s="242"/>
       <c r="BB11" s="243" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BC11" s="244"/>
       <c r="BD11" s="228" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="BE11" s="229"/>
       <c r="BF11" s="229"/>
@@ -21331,7 +21328,7 @@
       <c r="P12" s="60"/>
       <c r="Q12" s="61"/>
       <c r="R12" s="231" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="S12" s="232"/>
       <c r="T12" s="232"/>
@@ -21375,7 +21372,7 @@
       <c r="AZ12" s="241"/>
       <c r="BA12" s="242"/>
       <c r="BB12" s="243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BC12" s="244"/>
       <c r="BD12" s="46"/>
@@ -21403,7 +21400,7 @@
       <c r="K13" s="107"/>
       <c r="L13" s="90"/>
       <c r="M13" s="245" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N13" s="246"/>
       <c r="O13" s="246"/>
@@ -21482,7 +21479,7 @@
       <c r="P14" s="60"/>
       <c r="Q14" s="61"/>
       <c r="R14" s="231" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S14" s="232"/>
       <c r="T14" s="232"/>
@@ -21526,7 +21523,7 @@
       <c r="AZ14" s="241"/>
       <c r="BA14" s="242"/>
       <c r="BB14" s="243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BC14" s="244"/>
       <c r="BD14" s="228"/>
@@ -21564,7 +21561,7 @@
       <c r="P15" s="60"/>
       <c r="Q15" s="61"/>
       <c r="R15" s="231" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S15" s="232"/>
       <c r="T15" s="232"/>
@@ -21608,7 +21605,7 @@
       <c r="AZ15" s="241"/>
       <c r="BA15" s="242"/>
       <c r="BB15" s="243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BC15" s="244"/>
       <c r="BD15" s="228"/>
@@ -21646,7 +21643,7 @@
       <c r="P16" s="60"/>
       <c r="Q16" s="61"/>
       <c r="R16" s="231" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S16" s="232"/>
       <c r="T16" s="232"/>
@@ -21685,12 +21682,12 @@
       <c r="AW16" s="238"/>
       <c r="AX16" s="239"/>
       <c r="AY16" s="240" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AZ16" s="241"/>
       <c r="BA16" s="242"/>
       <c r="BB16" s="243" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BC16" s="244"/>
       <c r="BD16" s="228"/>
@@ -21728,7 +21725,7 @@
       <c r="P17" s="60"/>
       <c r="Q17" s="61"/>
       <c r="R17" s="231" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S17" s="232"/>
       <c r="T17" s="232"/>
@@ -21767,12 +21764,12 @@
       <c r="AW17" s="238"/>
       <c r="AX17" s="239"/>
       <c r="AY17" s="240" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AZ17" s="241"/>
       <c r="BA17" s="242"/>
       <c r="BB17" s="243" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BC17" s="244"/>
       <c r="BD17" s="228"/>
@@ -21800,7 +21797,7 @@
       <c r="K18" s="107"/>
       <c r="L18" s="90"/>
       <c r="M18" s="245" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N18" s="246"/>
       <c r="O18" s="246"/>
@@ -21879,7 +21876,7 @@
       <c r="P19" s="60"/>
       <c r="Q19" s="61"/>
       <c r="R19" s="231" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="S19" s="232"/>
       <c r="T19" s="232"/>
@@ -21918,12 +21915,12 @@
       <c r="AW19" s="238"/>
       <c r="AX19" s="239"/>
       <c r="AY19" s="240" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AZ19" s="241"/>
       <c r="BA19" s="242"/>
       <c r="BB19" s="243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BC19" s="244"/>
       <c r="BD19" s="46"/>
@@ -21961,7 +21958,7 @@
       <c r="P20" s="60"/>
       <c r="Q20" s="61"/>
       <c r="R20" s="231" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S20" s="232"/>
       <c r="T20" s="232"/>
@@ -22000,12 +21997,12 @@
       <c r="AW20" s="238"/>
       <c r="AX20" s="239"/>
       <c r="AY20" s="240" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AZ20" s="241"/>
       <c r="BA20" s="242"/>
       <c r="BB20" s="243" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BC20" s="244"/>
       <c r="BD20" s="46"/>
@@ -22043,7 +22040,7 @@
       <c r="P21" s="60"/>
       <c r="Q21" s="61"/>
       <c r="R21" s="231" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S21" s="232"/>
       <c r="T21" s="232"/>
@@ -22082,12 +22079,12 @@
       <c r="AW21" s="238"/>
       <c r="AX21" s="239"/>
       <c r="AY21" s="240" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AZ21" s="241"/>
       <c r="BA21" s="242"/>
       <c r="BB21" s="243" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BC21" s="244"/>
       <c r="BD21" s="46"/>
@@ -22125,7 +22122,7 @@
       <c r="P22" s="60"/>
       <c r="Q22" s="61"/>
       <c r="R22" s="231" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S22" s="232"/>
       <c r="T22" s="232"/>
@@ -22169,7 +22166,7 @@
       <c r="AZ22" s="241"/>
       <c r="BA22" s="242"/>
       <c r="BB22" s="243" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BC22" s="244"/>
       <c r="BD22" s="46"/>
@@ -22207,7 +22204,7 @@
       <c r="P23" s="60"/>
       <c r="Q23" s="61"/>
       <c r="R23" s="231" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S23" s="232"/>
       <c r="T23" s="232"/>
@@ -22251,7 +22248,7 @@
       <c r="AZ23" s="241"/>
       <c r="BA23" s="242"/>
       <c r="BB23" s="243" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BC23" s="244"/>
       <c r="BD23" s="46"/>
@@ -22289,7 +22286,7 @@
       <c r="P24" s="261"/>
       <c r="Q24" s="262"/>
       <c r="R24" s="231" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="S24" s="232"/>
       <c r="T24" s="232"/>
@@ -22328,12 +22325,12 @@
       <c r="AW24" s="238"/>
       <c r="AX24" s="239"/>
       <c r="AY24" s="240" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AZ24" s="241"/>
       <c r="BA24" s="242"/>
       <c r="BB24" s="243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BC24" s="244"/>
       <c r="BD24" s="46"/>
@@ -22371,7 +22368,7 @@
       <c r="P25" s="261"/>
       <c r="Q25" s="262"/>
       <c r="R25" s="231" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S25" s="232"/>
       <c r="T25" s="232"/>
@@ -22410,16 +22407,16 @@
       <c r="AW25" s="238"/>
       <c r="AX25" s="239"/>
       <c r="AY25" s="240" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AZ25" s="241"/>
       <c r="BA25" s="242"/>
       <c r="BB25" s="243" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="BC25" s="244"/>
       <c r="BD25" s="251" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="BE25" s="252"/>
       <c r="BF25" s="252"/>
@@ -22455,7 +22452,7 @@
       <c r="P26" s="261"/>
       <c r="Q26" s="262"/>
       <c r="R26" s="231" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S26" s="232"/>
       <c r="T26" s="232"/>
@@ -22499,7 +22496,7 @@
       <c r="AZ26" s="241"/>
       <c r="BA26" s="242"/>
       <c r="BB26" s="243" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BC26" s="244"/>
       <c r="BD26" s="46"/>
@@ -22537,7 +22534,7 @@
       <c r="P27" s="261"/>
       <c r="Q27" s="262"/>
       <c r="R27" s="231" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="S27" s="232"/>
       <c r="T27" s="232"/>
@@ -22581,7 +22578,7 @@
       <c r="AZ27" s="241"/>
       <c r="BA27" s="242"/>
       <c r="BB27" s="243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BC27" s="244"/>
       <c r="BD27" s="46"/>
@@ -22609,7 +22606,7 @@
       <c r="K28" s="107"/>
       <c r="L28" s="90"/>
       <c r="M28" s="245" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N28" s="246"/>
       <c r="O28" s="246"/>
@@ -22688,7 +22685,7 @@
       <c r="P29" s="261"/>
       <c r="Q29" s="262"/>
       <c r="R29" s="231" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="S29" s="232"/>
       <c r="T29" s="232"/>
@@ -22727,16 +22724,16 @@
       <c r="AW29" s="238"/>
       <c r="AX29" s="239"/>
       <c r="AY29" s="240" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AZ29" s="241"/>
       <c r="BA29" s="242"/>
       <c r="BB29" s="343" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BC29" s="344"/>
       <c r="BD29" s="251" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BE29" s="252"/>
       <c r="BF29" s="252"/>
@@ -22772,7 +22769,7 @@
       <c r="P30" s="261"/>
       <c r="Q30" s="262"/>
       <c r="R30" s="231" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="S30" s="232"/>
       <c r="T30" s="232"/>
@@ -22811,12 +22808,12 @@
       <c r="AW30" s="238"/>
       <c r="AX30" s="239"/>
       <c r="AY30" s="240" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AZ30" s="241"/>
       <c r="BA30" s="242"/>
       <c r="BB30" s="243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BC30" s="244"/>
       <c r="BD30" s="46"/>
@@ -22854,7 +22851,7 @@
       <c r="P31" s="261"/>
       <c r="Q31" s="262"/>
       <c r="R31" s="231" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="S31" s="232"/>
       <c r="T31" s="232"/>
@@ -22893,12 +22890,12 @@
       <c r="AW31" s="238"/>
       <c r="AX31" s="239"/>
       <c r="AY31" s="240" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AZ31" s="241"/>
       <c r="BA31" s="242"/>
       <c r="BB31" s="243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BC31" s="244"/>
       <c r="BD31" s="46"/>
@@ -22975,12 +22972,12 @@
       <c r="AW32" s="238"/>
       <c r="AX32" s="239"/>
       <c r="AY32" s="240" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AZ32" s="241"/>
       <c r="BA32" s="242"/>
       <c r="BB32" s="243" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BC32" s="244"/>
       <c r="BD32" s="46"/>
@@ -23018,7 +23015,7 @@
       <c r="P33" s="261"/>
       <c r="Q33" s="262"/>
       <c r="R33" s="231" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="S33" s="232"/>
       <c r="T33" s="232"/>
@@ -23062,7 +23059,7 @@
       <c r="AZ33" s="241"/>
       <c r="BA33" s="242"/>
       <c r="BB33" s="243" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BC33" s="244"/>
       <c r="BD33" s="46"/>
@@ -23090,7 +23087,7 @@
       <c r="K34" s="124"/>
       <c r="L34" s="125"/>
       <c r="M34" s="245" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N34" s="246"/>
       <c r="O34" s="246"/>
@@ -23156,7 +23153,7 @@
       <c r="H35" s="136"/>
       <c r="I35" s="137"/>
       <c r="J35" s="248" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K35" s="249"/>
       <c r="L35" s="250"/>
@@ -23166,7 +23163,7 @@
       <c r="P35" s="127"/>
       <c r="Q35" s="128"/>
       <c r="R35" s="231" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S35" s="232"/>
       <c r="T35" s="232"/>
@@ -23184,7 +23181,7 @@
       <c r="AF35" s="232"/>
       <c r="AG35" s="233"/>
       <c r="AH35" s="231" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AI35" s="232"/>
       <c r="AJ35" s="232"/>
@@ -23208,7 +23205,7 @@
       <c r="BB35" s="123"/>
       <c r="BC35" s="125"/>
       <c r="BD35" s="228" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BE35" s="229"/>
       <c r="BF35" s="229"/>
@@ -23231,7 +23228,7 @@
       <c r="H36" s="136"/>
       <c r="I36" s="137"/>
       <c r="J36" s="248" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K36" s="249"/>
       <c r="L36" s="250"/>
@@ -23241,7 +23238,7 @@
       <c r="P36" s="127"/>
       <c r="Q36" s="128"/>
       <c r="R36" s="231" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S36" s="232"/>
       <c r="T36" s="232"/>
@@ -23259,7 +23256,7 @@
       <c r="AF36" s="232"/>
       <c r="AG36" s="233"/>
       <c r="AH36" s="231" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AI36" s="232"/>
       <c r="AJ36" s="232"/>
@@ -23283,7 +23280,7 @@
       <c r="BB36" s="123"/>
       <c r="BC36" s="125"/>
       <c r="BD36" s="228" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="BE36" s="229"/>
       <c r="BF36" s="229"/>
@@ -23306,7 +23303,7 @@
       <c r="H37" s="136"/>
       <c r="I37" s="137"/>
       <c r="J37" s="248" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K37" s="249"/>
       <c r="L37" s="250"/>
@@ -23316,7 +23313,7 @@
       <c r="P37" s="127"/>
       <c r="Q37" s="128"/>
       <c r="R37" s="231" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="S37" s="232"/>
       <c r="T37" s="232"/>
@@ -23334,7 +23331,7 @@
       <c r="AF37" s="232"/>
       <c r="AG37" s="233"/>
       <c r="AH37" s="231" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AI37" s="232"/>
       <c r="AJ37" s="232"/>
@@ -23358,7 +23355,7 @@
       <c r="BB37" s="123"/>
       <c r="BC37" s="125"/>
       <c r="BD37" s="228" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="BE37" s="229"/>
       <c r="BF37" s="229"/>
@@ -23384,7 +23381,7 @@
       <c r="K38" s="121"/>
       <c r="L38" s="122"/>
       <c r="M38" s="245" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N38" s="246"/>
       <c r="O38" s="246"/>
@@ -23458,7 +23455,7 @@
       <c r="P39" s="127"/>
       <c r="Q39" s="128"/>
       <c r="R39" s="231" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S39" s="232"/>
       <c r="T39" s="232"/>
@@ -23476,7 +23473,7 @@
       <c r="AF39" s="232"/>
       <c r="AG39" s="233"/>
       <c r="AH39" s="231" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AI39" s="232"/>
       <c r="AJ39" s="232"/>
@@ -23500,7 +23497,7 @@
       <c r="BB39" s="123"/>
       <c r="BC39" s="125"/>
       <c r="BD39" s="228" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="BE39" s="229"/>
       <c r="BF39" s="229"/>
@@ -23531,7 +23528,7 @@
       <c r="P40" s="127"/>
       <c r="Q40" s="128"/>
       <c r="R40" s="231" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="S40" s="232"/>
       <c r="T40" s="232"/>
@@ -23549,7 +23546,7 @@
       <c r="AF40" s="232"/>
       <c r="AG40" s="233"/>
       <c r="AH40" s="231" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AI40" s="232"/>
       <c r="AJ40" s="232"/>
@@ -23573,7 +23570,7 @@
       <c r="BB40" s="123"/>
       <c r="BC40" s="125"/>
       <c r="BD40" s="228" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="BE40" s="229"/>
       <c r="BF40" s="229"/>
@@ -23604,7 +23601,7 @@
       <c r="P41" s="127"/>
       <c r="Q41" s="128"/>
       <c r="R41" s="231" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="S41" s="232"/>
       <c r="T41" s="232"/>
@@ -23622,7 +23619,7 @@
       <c r="AF41" s="232"/>
       <c r="AG41" s="233"/>
       <c r="AH41" s="231" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AI41" s="232"/>
       <c r="AJ41" s="232"/>
@@ -23646,7 +23643,7 @@
       <c r="BB41" s="123"/>
       <c r="BC41" s="125"/>
       <c r="BD41" s="228" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="BE41" s="229"/>
       <c r="BF41" s="229"/>
@@ -23677,7 +23674,7 @@
       <c r="P42" s="127"/>
       <c r="Q42" s="128"/>
       <c r="R42" s="231" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S42" s="232"/>
       <c r="T42" s="232"/>
@@ -23695,7 +23692,7 @@
       <c r="AF42" s="232"/>
       <c r="AG42" s="233"/>
       <c r="AH42" s="231" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AI42" s="232"/>
       <c r="AJ42" s="232"/>
@@ -23719,7 +23716,7 @@
       <c r="BB42" s="123"/>
       <c r="BC42" s="125"/>
       <c r="BD42" s="228" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="BE42" s="229"/>
       <c r="BF42" s="229"/>
@@ -23745,7 +23742,7 @@
       <c r="K43" s="107"/>
       <c r="L43" s="90"/>
       <c r="M43" s="245" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N43" s="246"/>
       <c r="O43" s="246"/>
@@ -23868,7 +23865,7 @@
       <c r="AZ44" s="241"/>
       <c r="BA44" s="242"/>
       <c r="BB44" s="243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BC44" s="244"/>
       <c r="BD44" s="46"/>
@@ -23945,12 +23942,12 @@
       <c r="AW45" s="238"/>
       <c r="AX45" s="239"/>
       <c r="AY45" s="240" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AZ45" s="241"/>
       <c r="BA45" s="242"/>
       <c r="BB45" s="243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BC45" s="244"/>
       <c r="BD45" s="46"/>
@@ -24032,7 +24029,7 @@
       <c r="AZ46" s="241"/>
       <c r="BA46" s="242"/>
       <c r="BB46" s="243" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BC46" s="244"/>
       <c r="BD46" s="46"/>
@@ -24060,7 +24057,7 @@
       <c r="K47" s="107"/>
       <c r="L47" s="90"/>
       <c r="M47" s="245" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N47" s="246"/>
       <c r="O47" s="246"/>
@@ -24183,11 +24180,11 @@
       <c r="AZ48" s="241"/>
       <c r="BA48" s="242"/>
       <c r="BB48" s="345" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BC48" s="346"/>
       <c r="BD48" s="251" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="BE48" s="252"/>
       <c r="BF48" s="252"/>
@@ -24213,7 +24210,7 @@
       <c r="K49" s="97"/>
       <c r="L49" s="144"/>
       <c r="M49" s="245" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N49" s="246"/>
       <c r="O49" s="246"/>
@@ -24290,7 +24287,7 @@
       <c r="P50" s="53"/>
       <c r="Q50" s="54"/>
       <c r="R50" s="231" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S50" s="232"/>
       <c r="T50" s="232"/>
@@ -24329,16 +24326,16 @@
       <c r="AW50" s="238"/>
       <c r="AX50" s="239"/>
       <c r="AY50" s="240" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AZ50" s="241"/>
       <c r="BA50" s="242"/>
       <c r="BB50" s="345" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="BC50" s="346"/>
       <c r="BD50" s="251" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="BE50" s="252"/>
       <c r="BF50" s="252"/>
@@ -24374,7 +24371,7 @@
       <c r="P51" s="53"/>
       <c r="Q51" s="54"/>
       <c r="R51" s="231" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S51" s="232"/>
       <c r="T51" s="232"/>
@@ -24418,7 +24415,7 @@
       <c r="AZ51" s="241"/>
       <c r="BA51" s="242"/>
       <c r="BB51" s="243" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="BC51" s="244"/>
       <c r="BD51" s="46"/>
@@ -24446,7 +24443,7 @@
       <c r="K52" s="112"/>
       <c r="L52" s="113"/>
       <c r="M52" s="245" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N52" s="246"/>
       <c r="O52" s="246"/>
@@ -24525,7 +24522,7 @@
       <c r="P53" s="53"/>
       <c r="Q53" s="54"/>
       <c r="R53" s="257" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S53" s="258"/>
       <c r="T53" s="258"/>
@@ -24569,7 +24566,7 @@
       <c r="AZ53" s="241"/>
       <c r="BA53" s="242"/>
       <c r="BB53" s="243" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="BC53" s="244"/>
       <c r="BD53" s="46"/>
@@ -24904,10 +24901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM33"/>
+  <dimension ref="A1:BM28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J9" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10:AG10"/>
+    <sheetView showGridLines="0" topLeftCell="J26" workbookViewId="0">
+      <selection activeCell="BB27" sqref="BB27:BC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -25335,7 +25332,7 @@
       <c r="P7" s="295"/>
       <c r="Q7" s="296"/>
       <c r="R7" s="231" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="S7" s="232"/>
       <c r="T7" s="232"/>
@@ -25353,7 +25350,7 @@
       <c r="AF7" s="232"/>
       <c r="AG7" s="233"/>
       <c r="AH7" s="257" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="AI7" s="258"/>
       <c r="AJ7" s="258"/>
@@ -25377,7 +25374,7 @@
       <c r="BB7" s="243"/>
       <c r="BC7" s="244"/>
       <c r="BD7" s="251" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="BE7" s="252"/>
       <c r="BF7" s="252"/>
@@ -25391,7 +25388,7 @@
     </row>
     <row r="8" spans="1:65" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="254">
-        <f t="shared" ref="A8:A32" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A27" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="255"/>
@@ -25415,7 +25412,7 @@
       <c r="P8" s="295"/>
       <c r="Q8" s="296"/>
       <c r="R8" s="231" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="S8" s="232"/>
       <c r="T8" s="232"/>
@@ -25448,13 +25445,19 @@
       <c r="AS8" s="258"/>
       <c r="AT8" s="258"/>
       <c r="AU8" s="268"/>
-      <c r="AV8" s="237"/>
+      <c r="AV8" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW8" s="238"/>
       <c r="AX8" s="239"/>
-      <c r="AY8" s="240"/>
+      <c r="AY8" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ8" s="263"/>
       <c r="BA8" s="264"/>
-      <c r="BB8" s="243"/>
+      <c r="BB8" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC8" s="244"/>
       <c r="BD8" s="251"/>
       <c r="BE8" s="252"/>
@@ -25486,14 +25489,14 @@
       <c r="K9" s="293"/>
       <c r="L9" s="293"/>
       <c r="M9" s="294" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N9" s="295"/>
       <c r="O9" s="295"/>
       <c r="P9" s="295"/>
       <c r="Q9" s="296"/>
       <c r="R9" s="231" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="S9" s="232"/>
       <c r="T9" s="232"/>
@@ -25526,17 +25529,21 @@
       <c r="AS9" s="258"/>
       <c r="AT9" s="258"/>
       <c r="AU9" s="268"/>
-      <c r="AV9" s="237"/>
+      <c r="AV9" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW9" s="238"/>
       <c r="AX9" s="239"/>
-      <c r="AY9" s="240"/>
+      <c r="AY9" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ9" s="263"/>
       <c r="BA9" s="264"/>
-      <c r="BB9" s="243"/>
+      <c r="BB9" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC9" s="244"/>
-      <c r="BD9" s="251" t="s">
-        <v>666</v>
-      </c>
+      <c r="BD9" s="251"/>
       <c r="BE9" s="252"/>
       <c r="BF9" s="252"/>
       <c r="BG9" s="252"/>
@@ -25573,7 +25580,7 @@
       <c r="P10" s="295"/>
       <c r="Q10" s="296"/>
       <c r="R10" s="231" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="S10" s="232"/>
       <c r="T10" s="232"/>
@@ -25606,16 +25613,22 @@
       <c r="AS10" s="258"/>
       <c r="AT10" s="258"/>
       <c r="AU10" s="268"/>
-      <c r="AV10" s="237"/>
+      <c r="AV10" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW10" s="238"/>
       <c r="AX10" s="239"/>
-      <c r="AY10" s="240"/>
+      <c r="AY10" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ10" s="263"/>
       <c r="BA10" s="264"/>
-      <c r="BB10" s="243"/>
+      <c r="BB10" s="243" t="s">
+        <v>669</v>
+      </c>
       <c r="BC10" s="244"/>
       <c r="BD10" s="251" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BE10" s="252"/>
       <c r="BF10" s="252"/>
@@ -25640,20 +25653,20 @@
       <c r="G11" s="266"/>
       <c r="H11" s="266"/>
       <c r="I11" s="267"/>
-      <c r="J11" s="292" t="s">
-        <v>229</v>
-      </c>
-      <c r="K11" s="293"/>
-      <c r="L11" s="293"/>
-      <c r="M11" s="294" t="s">
-        <v>230</v>
-      </c>
-      <c r="N11" s="295"/>
-      <c r="O11" s="295"/>
-      <c r="P11" s="295"/>
-      <c r="Q11" s="296"/>
+      <c r="J11" s="243" t="s">
+        <v>258</v>
+      </c>
+      <c r="K11" s="256"/>
+      <c r="L11" s="244"/>
+      <c r="M11" s="231" t="s">
+        <v>290</v>
+      </c>
+      <c r="N11" s="232"/>
+      <c r="O11" s="232"/>
+      <c r="P11" s="232"/>
+      <c r="Q11" s="233"/>
       <c r="R11" s="231" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="S11" s="232"/>
       <c r="T11" s="232"/>
@@ -25671,7 +25684,7 @@
       <c r="AF11" s="232"/>
       <c r="AG11" s="233"/>
       <c r="AH11" s="257" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="AI11" s="258"/>
       <c r="AJ11" s="258"/>
@@ -25686,13 +25699,19 @@
       <c r="AS11" s="258"/>
       <c r="AT11" s="258"/>
       <c r="AU11" s="268"/>
-      <c r="AV11" s="237"/>
+      <c r="AV11" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW11" s="238"/>
       <c r="AX11" s="239"/>
-      <c r="AY11" s="240"/>
-      <c r="AZ11" s="263"/>
-      <c r="BA11" s="264"/>
-      <c r="BB11" s="243"/>
+      <c r="AY11" s="240" t="s">
+        <v>651</v>
+      </c>
+      <c r="AZ11" s="241"/>
+      <c r="BA11" s="242"/>
+      <c r="BB11" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC11" s="244"/>
       <c r="BD11" s="251"/>
       <c r="BE11" s="252"/>
@@ -25719,19 +25738,19 @@
       <c r="H12" s="266"/>
       <c r="I12" s="267"/>
       <c r="J12" s="292" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="K12" s="293"/>
       <c r="L12" s="293"/>
       <c r="M12" s="294" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="N12" s="295"/>
       <c r="O12" s="295"/>
       <c r="P12" s="295"/>
       <c r="Q12" s="296"/>
       <c r="R12" s="231" t="s">
-        <v>667</v>
+        <v>260</v>
       </c>
       <c r="S12" s="232"/>
       <c r="T12" s="232"/>
@@ -25749,7 +25768,7 @@
       <c r="AF12" s="232"/>
       <c r="AG12" s="233"/>
       <c r="AH12" s="257" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AI12" s="258"/>
       <c r="AJ12" s="258"/>
@@ -25764,13 +25783,19 @@
       <c r="AS12" s="258"/>
       <c r="AT12" s="258"/>
       <c r="AU12" s="268"/>
-      <c r="AV12" s="237"/>
+      <c r="AV12" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW12" s="238"/>
       <c r="AX12" s="239"/>
-      <c r="AY12" s="240"/>
+      <c r="AY12" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ12" s="263"/>
       <c r="BA12" s="264"/>
-      <c r="BB12" s="243"/>
+      <c r="BB12" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC12" s="244"/>
       <c r="BD12" s="251"/>
       <c r="BE12" s="252"/>
@@ -25797,19 +25822,19 @@
       <c r="H13" s="266"/>
       <c r="I13" s="267"/>
       <c r="J13" s="292" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="K13" s="293"/>
       <c r="L13" s="293"/>
       <c r="M13" s="294" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="N13" s="295"/>
       <c r="O13" s="295"/>
       <c r="P13" s="295"/>
       <c r="Q13" s="296"/>
       <c r="R13" s="231" t="s">
-        <v>664</v>
+        <v>262</v>
       </c>
       <c r="S13" s="232"/>
       <c r="T13" s="232"/>
@@ -25827,7 +25852,7 @@
       <c r="AF13" s="232"/>
       <c r="AG13" s="233"/>
       <c r="AH13" s="257" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AI13" s="258"/>
       <c r="AJ13" s="258"/>
@@ -25842,13 +25867,19 @@
       <c r="AS13" s="258"/>
       <c r="AT13" s="258"/>
       <c r="AU13" s="268"/>
-      <c r="AV13" s="237"/>
+      <c r="AV13" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW13" s="238"/>
       <c r="AX13" s="239"/>
-      <c r="AY13" s="240"/>
+      <c r="AY13" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ13" s="263"/>
       <c r="BA13" s="264"/>
-      <c r="BB13" s="243"/>
+      <c r="BB13" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC13" s="244"/>
       <c r="BD13" s="251"/>
       <c r="BE13" s="252"/>
@@ -25875,19 +25906,19 @@
       <c r="H14" s="266"/>
       <c r="I14" s="267"/>
       <c r="J14" s="292" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="K14" s="293"/>
       <c r="L14" s="293"/>
       <c r="M14" s="294" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="N14" s="295"/>
       <c r="O14" s="295"/>
       <c r="P14" s="295"/>
       <c r="Q14" s="296"/>
       <c r="R14" s="231" t="s">
-        <v>664</v>
+        <v>263</v>
       </c>
       <c r="S14" s="232"/>
       <c r="T14" s="232"/>
@@ -25905,7 +25936,7 @@
       <c r="AF14" s="232"/>
       <c r="AG14" s="233"/>
       <c r="AH14" s="257" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AI14" s="258"/>
       <c r="AJ14" s="258"/>
@@ -25920,13 +25951,19 @@
       <c r="AS14" s="258"/>
       <c r="AT14" s="258"/>
       <c r="AU14" s="268"/>
-      <c r="AV14" s="237"/>
+      <c r="AV14" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW14" s="238"/>
       <c r="AX14" s="239"/>
-      <c r="AY14" s="240"/>
+      <c r="AY14" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ14" s="263"/>
       <c r="BA14" s="264"/>
-      <c r="BB14" s="243"/>
+      <c r="BB14" s="243" t="s">
+        <v>672</v>
+      </c>
       <c r="BC14" s="244"/>
       <c r="BD14" s="251"/>
       <c r="BE14" s="252"/>
@@ -25953,19 +25990,19 @@
       <c r="H15" s="266"/>
       <c r="I15" s="267"/>
       <c r="J15" s="292" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="K15" s="293"/>
       <c r="L15" s="293"/>
       <c r="M15" s="294" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="N15" s="295"/>
       <c r="O15" s="295"/>
       <c r="P15" s="295"/>
       <c r="Q15" s="296"/>
       <c r="R15" s="231" t="s">
-        <v>664</v>
+        <v>264</v>
       </c>
       <c r="S15" s="232"/>
       <c r="T15" s="232"/>
@@ -25983,7 +26020,7 @@
       <c r="AF15" s="232"/>
       <c r="AG15" s="233"/>
       <c r="AH15" s="257" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AI15" s="258"/>
       <c r="AJ15" s="258"/>
@@ -25998,13 +26035,19 @@
       <c r="AS15" s="258"/>
       <c r="AT15" s="258"/>
       <c r="AU15" s="268"/>
-      <c r="AV15" s="237"/>
+      <c r="AV15" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW15" s="238"/>
       <c r="AX15" s="239"/>
-      <c r="AY15" s="240"/>
+      <c r="AY15" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ15" s="263"/>
       <c r="BA15" s="264"/>
-      <c r="BB15" s="243"/>
+      <c r="BB15" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC15" s="244"/>
       <c r="BD15" s="251"/>
       <c r="BE15" s="252"/>
@@ -26036,14 +26079,14 @@
       <c r="K16" s="293"/>
       <c r="L16" s="293"/>
       <c r="M16" s="294" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N16" s="295"/>
       <c r="O16" s="295"/>
       <c r="P16" s="295"/>
       <c r="Q16" s="296"/>
       <c r="R16" s="231" t="s">
-        <v>663</v>
+        <v>266</v>
       </c>
       <c r="S16" s="232"/>
       <c r="T16" s="232"/>
@@ -26061,7 +26104,7 @@
       <c r="AF16" s="232"/>
       <c r="AG16" s="233"/>
       <c r="AH16" s="257" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AI16" s="258"/>
       <c r="AJ16" s="258"/>
@@ -26076,13 +26119,19 @@
       <c r="AS16" s="258"/>
       <c r="AT16" s="258"/>
       <c r="AU16" s="268"/>
-      <c r="AV16" s="237"/>
+      <c r="AV16" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW16" s="238"/>
       <c r="AX16" s="239"/>
-      <c r="AY16" s="240"/>
+      <c r="AY16" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ16" s="263"/>
       <c r="BA16" s="264"/>
-      <c r="BB16" s="243"/>
+      <c r="BB16" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC16" s="244"/>
       <c r="BD16" s="251"/>
       <c r="BE16" s="252"/>
@@ -26114,14 +26163,14 @@
       <c r="K17" s="293"/>
       <c r="L17" s="293"/>
       <c r="M17" s="294" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N17" s="295"/>
       <c r="O17" s="295"/>
       <c r="P17" s="295"/>
       <c r="Q17" s="296"/>
       <c r="R17" s="231" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="S17" s="232"/>
       <c r="T17" s="232"/>
@@ -26154,13 +26203,19 @@
       <c r="AS17" s="258"/>
       <c r="AT17" s="258"/>
       <c r="AU17" s="268"/>
-      <c r="AV17" s="237"/>
+      <c r="AV17" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW17" s="238"/>
       <c r="AX17" s="239"/>
-      <c r="AY17" s="240"/>
+      <c r="AY17" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ17" s="263"/>
       <c r="BA17" s="264"/>
-      <c r="BB17" s="243"/>
+      <c r="BB17" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC17" s="244"/>
       <c r="BD17" s="251"/>
       <c r="BE17" s="252"/>
@@ -26192,14 +26247,14 @@
       <c r="K18" s="293"/>
       <c r="L18" s="293"/>
       <c r="M18" s="294" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N18" s="295"/>
       <c r="O18" s="295"/>
       <c r="P18" s="295"/>
       <c r="Q18" s="296"/>
       <c r="R18" s="231" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="S18" s="232"/>
       <c r="T18" s="232"/>
@@ -26232,13 +26287,19 @@
       <c r="AS18" s="258"/>
       <c r="AT18" s="258"/>
       <c r="AU18" s="268"/>
-      <c r="AV18" s="237"/>
+      <c r="AV18" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW18" s="238"/>
       <c r="AX18" s="239"/>
-      <c r="AY18" s="240"/>
+      <c r="AY18" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ18" s="263"/>
       <c r="BA18" s="264"/>
-      <c r="BB18" s="243"/>
+      <c r="BB18" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC18" s="244"/>
       <c r="BD18" s="251"/>
       <c r="BE18" s="252"/>
@@ -26265,7 +26326,7 @@
       <c r="H19" s="266"/>
       <c r="I19" s="267"/>
       <c r="J19" s="292" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K19" s="293"/>
       <c r="L19" s="293"/>
@@ -26277,7 +26338,7 @@
       <c r="P19" s="295"/>
       <c r="Q19" s="296"/>
       <c r="R19" s="231" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="S19" s="232"/>
       <c r="T19" s="232"/>
@@ -26295,7 +26356,7 @@
       <c r="AF19" s="232"/>
       <c r="AG19" s="233"/>
       <c r="AH19" s="257" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="AI19" s="258"/>
       <c r="AJ19" s="258"/>
@@ -26310,13 +26371,19 @@
       <c r="AS19" s="258"/>
       <c r="AT19" s="258"/>
       <c r="AU19" s="268"/>
-      <c r="AV19" s="237"/>
+      <c r="AV19" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW19" s="238"/>
       <c r="AX19" s="239"/>
-      <c r="AY19" s="240"/>
+      <c r="AY19" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ19" s="263"/>
       <c r="BA19" s="264"/>
-      <c r="BB19" s="243"/>
+      <c r="BB19" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC19" s="244"/>
       <c r="BD19" s="251"/>
       <c r="BE19" s="252"/>
@@ -26343,7 +26410,7 @@
       <c r="H20" s="266"/>
       <c r="I20" s="267"/>
       <c r="J20" s="292" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K20" s="293"/>
       <c r="L20" s="293"/>
@@ -26355,7 +26422,7 @@
       <c r="P20" s="295"/>
       <c r="Q20" s="296"/>
       <c r="R20" s="231" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="S20" s="232"/>
       <c r="T20" s="232"/>
@@ -26373,7 +26440,7 @@
       <c r="AF20" s="232"/>
       <c r="AG20" s="233"/>
       <c r="AH20" s="257" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AI20" s="258"/>
       <c r="AJ20" s="258"/>
@@ -26388,13 +26455,19 @@
       <c r="AS20" s="258"/>
       <c r="AT20" s="258"/>
       <c r="AU20" s="268"/>
-      <c r="AV20" s="237"/>
+      <c r="AV20" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW20" s="238"/>
       <c r="AX20" s="239"/>
-      <c r="AY20" s="240"/>
+      <c r="AY20" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ20" s="263"/>
       <c r="BA20" s="264"/>
-      <c r="BB20" s="243"/>
+      <c r="BB20" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC20" s="244"/>
       <c r="BD20" s="251"/>
       <c r="BE20" s="252"/>
@@ -26421,7 +26494,7 @@
       <c r="H21" s="266"/>
       <c r="I21" s="267"/>
       <c r="J21" s="292" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K21" s="293"/>
       <c r="L21" s="293"/>
@@ -26433,7 +26506,7 @@
       <c r="P21" s="295"/>
       <c r="Q21" s="296"/>
       <c r="R21" s="231" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="S21" s="232"/>
       <c r="T21" s="232"/>
@@ -26451,7 +26524,7 @@
       <c r="AF21" s="232"/>
       <c r="AG21" s="233"/>
       <c r="AH21" s="257" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="AI21" s="258"/>
       <c r="AJ21" s="258"/>
@@ -26466,13 +26539,19 @@
       <c r="AS21" s="258"/>
       <c r="AT21" s="258"/>
       <c r="AU21" s="268"/>
-      <c r="AV21" s="237"/>
+      <c r="AV21" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW21" s="238"/>
       <c r="AX21" s="239"/>
-      <c r="AY21" s="240"/>
+      <c r="AY21" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ21" s="263"/>
       <c r="BA21" s="264"/>
-      <c r="BB21" s="243"/>
+      <c r="BB21" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC21" s="244"/>
       <c r="BD21" s="251"/>
       <c r="BE21" s="252"/>
@@ -26511,7 +26590,7 @@
       <c r="P22" s="295"/>
       <c r="Q22" s="296"/>
       <c r="R22" s="231" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="S22" s="232"/>
       <c r="T22" s="232"/>
@@ -26529,7 +26608,7 @@
       <c r="AF22" s="232"/>
       <c r="AG22" s="233"/>
       <c r="AH22" s="257" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="AI22" s="258"/>
       <c r="AJ22" s="258"/>
@@ -26544,13 +26623,19 @@
       <c r="AS22" s="258"/>
       <c r="AT22" s="258"/>
       <c r="AU22" s="268"/>
-      <c r="AV22" s="237"/>
+      <c r="AV22" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW22" s="238"/>
       <c r="AX22" s="239"/>
-      <c r="AY22" s="240"/>
+      <c r="AY22" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ22" s="263"/>
       <c r="BA22" s="264"/>
-      <c r="BB22" s="243"/>
+      <c r="BB22" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC22" s="244"/>
       <c r="BD22" s="251"/>
       <c r="BE22" s="252"/>
@@ -26589,7 +26674,7 @@
       <c r="P23" s="295"/>
       <c r="Q23" s="296"/>
       <c r="R23" s="231" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="S23" s="232"/>
       <c r="T23" s="232"/>
@@ -26607,7 +26692,7 @@
       <c r="AF23" s="232"/>
       <c r="AG23" s="233"/>
       <c r="AH23" s="257" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="AI23" s="258"/>
       <c r="AJ23" s="258"/>
@@ -26622,13 +26707,19 @@
       <c r="AS23" s="258"/>
       <c r="AT23" s="258"/>
       <c r="AU23" s="268"/>
-      <c r="AV23" s="237"/>
+      <c r="AV23" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW23" s="238"/>
       <c r="AX23" s="239"/>
-      <c r="AY23" s="240"/>
+      <c r="AY23" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ23" s="263"/>
       <c r="BA23" s="264"/>
-      <c r="BB23" s="243"/>
+      <c r="BB23" s="243" t="s">
+        <v>673</v>
+      </c>
       <c r="BC23" s="244"/>
       <c r="BD23" s="251"/>
       <c r="BE23" s="252"/>
@@ -26655,7 +26746,7 @@
       <c r="H24" s="266"/>
       <c r="I24" s="267"/>
       <c r="J24" s="292" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="K24" s="293"/>
       <c r="L24" s="293"/>
@@ -26667,7 +26758,7 @@
       <c r="P24" s="295"/>
       <c r="Q24" s="296"/>
       <c r="R24" s="231" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="S24" s="232"/>
       <c r="T24" s="232"/>
@@ -26685,7 +26776,7 @@
       <c r="AF24" s="232"/>
       <c r="AG24" s="233"/>
       <c r="AH24" s="257" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AI24" s="258"/>
       <c r="AJ24" s="258"/>
@@ -26700,13 +26791,19 @@
       <c r="AS24" s="258"/>
       <c r="AT24" s="258"/>
       <c r="AU24" s="268"/>
-      <c r="AV24" s="237"/>
+      <c r="AV24" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW24" s="238"/>
       <c r="AX24" s="239"/>
-      <c r="AY24" s="240"/>
+      <c r="AY24" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ24" s="263"/>
       <c r="BA24" s="264"/>
-      <c r="BB24" s="243"/>
+      <c r="BB24" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC24" s="244"/>
       <c r="BD24" s="251"/>
       <c r="BE24" s="252"/>
@@ -26733,7 +26830,7 @@
       <c r="H25" s="266"/>
       <c r="I25" s="267"/>
       <c r="J25" s="292" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="K25" s="293"/>
       <c r="L25" s="293"/>
@@ -26745,7 +26842,7 @@
       <c r="P25" s="295"/>
       <c r="Q25" s="296"/>
       <c r="R25" s="231" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="S25" s="232"/>
       <c r="T25" s="232"/>
@@ -26763,7 +26860,7 @@
       <c r="AF25" s="232"/>
       <c r="AG25" s="233"/>
       <c r="AH25" s="257" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="AI25" s="258"/>
       <c r="AJ25" s="258"/>
@@ -26778,13 +26875,19 @@
       <c r="AS25" s="258"/>
       <c r="AT25" s="258"/>
       <c r="AU25" s="268"/>
-      <c r="AV25" s="237"/>
+      <c r="AV25" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW25" s="238"/>
       <c r="AX25" s="239"/>
-      <c r="AY25" s="240"/>
+      <c r="AY25" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ25" s="263"/>
       <c r="BA25" s="264"/>
-      <c r="BB25" s="243"/>
+      <c r="BB25" s="243" t="s">
+        <v>674</v>
+      </c>
       <c r="BC25" s="244"/>
       <c r="BD25" s="251"/>
       <c r="BE25" s="252"/>
@@ -26811,7 +26914,7 @@
       <c r="H26" s="266"/>
       <c r="I26" s="267"/>
       <c r="J26" s="292" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="K26" s="293"/>
       <c r="L26" s="293"/>
@@ -26823,7 +26926,7 @@
       <c r="P26" s="295"/>
       <c r="Q26" s="296"/>
       <c r="R26" s="231" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="S26" s="232"/>
       <c r="T26" s="232"/>
@@ -26841,7 +26944,7 @@
       <c r="AF26" s="232"/>
       <c r="AG26" s="233"/>
       <c r="AH26" s="257" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AI26" s="258"/>
       <c r="AJ26" s="258"/>
@@ -26856,13 +26959,19 @@
       <c r="AS26" s="258"/>
       <c r="AT26" s="258"/>
       <c r="AU26" s="268"/>
-      <c r="AV26" s="237"/>
+      <c r="AV26" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW26" s="238"/>
       <c r="AX26" s="239"/>
-      <c r="AY26" s="240"/>
+      <c r="AY26" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ26" s="263"/>
       <c r="BA26" s="264"/>
-      <c r="BB26" s="243"/>
+      <c r="BB26" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC26" s="244"/>
       <c r="BD26" s="251"/>
       <c r="BE26" s="252"/>
@@ -26901,7 +27010,7 @@
       <c r="P27" s="295"/>
       <c r="Q27" s="296"/>
       <c r="R27" s="231" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="S27" s="232"/>
       <c r="T27" s="232"/>
@@ -26919,7 +27028,7 @@
       <c r="AF27" s="232"/>
       <c r="AG27" s="233"/>
       <c r="AH27" s="257" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AI27" s="258"/>
       <c r="AJ27" s="258"/>
@@ -26934,13 +27043,19 @@
       <c r="AS27" s="258"/>
       <c r="AT27" s="258"/>
       <c r="AU27" s="268"/>
-      <c r="AV27" s="237"/>
+      <c r="AV27" s="237">
+        <v>42545</v>
+      </c>
       <c r="AW27" s="238"/>
       <c r="AX27" s="239"/>
-      <c r="AY27" s="240"/>
+      <c r="AY27" s="240" t="s">
+        <v>651</v>
+      </c>
       <c r="AZ27" s="263"/>
       <c r="BA27" s="264"/>
-      <c r="BB27" s="243"/>
+      <c r="BB27" s="243" t="s">
+        <v>670</v>
+      </c>
       <c r="BC27" s="244"/>
       <c r="BD27" s="251"/>
       <c r="BE27" s="252"/>
@@ -26954,505 +27069,75 @@
       <c r="BM27" s="253"/>
     </row>
     <row r="28" spans="1:65" ht="216" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="254">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B28" s="255"/>
-      <c r="C28" s="265"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="266"/>
-      <c r="G28" s="266"/>
-      <c r="H28" s="266"/>
-      <c r="I28" s="267"/>
-      <c r="J28" s="292" t="s">
-        <v>258</v>
-      </c>
-      <c r="K28" s="293"/>
-      <c r="L28" s="293"/>
-      <c r="M28" s="294" t="s">
-        <v>292</v>
-      </c>
-      <c r="N28" s="295"/>
-      <c r="O28" s="295"/>
-      <c r="P28" s="295"/>
-      <c r="Q28" s="296"/>
-      <c r="R28" s="231" t="s">
-        <v>278</v>
-      </c>
-      <c r="S28" s="232"/>
-      <c r="T28" s="232"/>
-      <c r="U28" s="232"/>
-      <c r="V28" s="232"/>
-      <c r="W28" s="232"/>
-      <c r="X28" s="232"/>
-      <c r="Y28" s="232"/>
-      <c r="Z28" s="232"/>
-      <c r="AA28" s="232"/>
-      <c r="AB28" s="232"/>
-      <c r="AC28" s="232"/>
-      <c r="AD28" s="232"/>
-      <c r="AE28" s="232"/>
-      <c r="AF28" s="232"/>
-      <c r="AG28" s="233"/>
-      <c r="AH28" s="257" t="s">
-        <v>279</v>
-      </c>
-      <c r="AI28" s="258"/>
-      <c r="AJ28" s="258"/>
-      <c r="AK28" s="258"/>
-      <c r="AL28" s="258"/>
-      <c r="AM28" s="258"/>
-      <c r="AN28" s="258"/>
-      <c r="AO28" s="258"/>
-      <c r="AP28" s="258"/>
-      <c r="AQ28" s="258"/>
-      <c r="AR28" s="258"/>
-      <c r="AS28" s="258"/>
-      <c r="AT28" s="258"/>
-      <c r="AU28" s="268"/>
-      <c r="AV28" s="237"/>
-      <c r="AW28" s="238"/>
-      <c r="AX28" s="239"/>
-      <c r="AY28" s="240"/>
-      <c r="AZ28" s="263"/>
-      <c r="BA28" s="264"/>
-      <c r="BB28" s="243"/>
-      <c r="BC28" s="244"/>
-      <c r="BD28" s="251"/>
-      <c r="BE28" s="252"/>
-      <c r="BF28" s="252"/>
-      <c r="BG28" s="252"/>
-      <c r="BH28" s="252"/>
-      <c r="BI28" s="252"/>
-      <c r="BJ28" s="252"/>
-      <c r="BK28" s="252"/>
-      <c r="BL28" s="252"/>
-      <c r="BM28" s="253"/>
-    </row>
-    <row r="29" spans="1:65" ht="216" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="254">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B29" s="255"/>
-      <c r="C29" s="265"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="266"/>
-      <c r="F29" s="266"/>
-      <c r="G29" s="266"/>
-      <c r="H29" s="266"/>
-      <c r="I29" s="267"/>
-      <c r="J29" s="292" t="s">
-        <v>258</v>
-      </c>
-      <c r="K29" s="293"/>
-      <c r="L29" s="293"/>
-      <c r="M29" s="294" t="s">
-        <v>292</v>
-      </c>
-      <c r="N29" s="295"/>
-      <c r="O29" s="295"/>
-      <c r="P29" s="295"/>
-      <c r="Q29" s="296"/>
-      <c r="R29" s="231" t="s">
-        <v>280</v>
-      </c>
-      <c r="S29" s="232"/>
-      <c r="T29" s="232"/>
-      <c r="U29" s="232"/>
-      <c r="V29" s="232"/>
-      <c r="W29" s="232"/>
-      <c r="X29" s="232"/>
-      <c r="Y29" s="232"/>
-      <c r="Z29" s="232"/>
-      <c r="AA29" s="232"/>
-      <c r="AB29" s="232"/>
-      <c r="AC29" s="232"/>
-      <c r="AD29" s="232"/>
-      <c r="AE29" s="232"/>
-      <c r="AF29" s="232"/>
-      <c r="AG29" s="233"/>
-      <c r="AH29" s="257" t="s">
-        <v>281</v>
-      </c>
-      <c r="AI29" s="258"/>
-      <c r="AJ29" s="258"/>
-      <c r="AK29" s="258"/>
-      <c r="AL29" s="258"/>
-      <c r="AM29" s="258"/>
-      <c r="AN29" s="258"/>
-      <c r="AO29" s="258"/>
-      <c r="AP29" s="258"/>
-      <c r="AQ29" s="258"/>
-      <c r="AR29" s="258"/>
-      <c r="AS29" s="258"/>
-      <c r="AT29" s="258"/>
-      <c r="AU29" s="268"/>
-      <c r="AV29" s="237"/>
-      <c r="AW29" s="238"/>
-      <c r="AX29" s="239"/>
-      <c r="AY29" s="240"/>
-      <c r="AZ29" s="263"/>
-      <c r="BA29" s="264"/>
-      <c r="BB29" s="243"/>
-      <c r="BC29" s="244"/>
-      <c r="BD29" s="251"/>
-      <c r="BE29" s="252"/>
-      <c r="BF29" s="252"/>
-      <c r="BG29" s="252"/>
-      <c r="BH29" s="252"/>
-      <c r="BI29" s="252"/>
-      <c r="BJ29" s="252"/>
-      <c r="BK29" s="252"/>
-      <c r="BL29" s="252"/>
-      <c r="BM29" s="253"/>
-    </row>
-    <row r="30" spans="1:65" ht="216" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="254">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B30" s="255"/>
-      <c r="C30" s="265"/>
-      <c r="D30" s="266"/>
-      <c r="E30" s="266"/>
-      <c r="F30" s="266"/>
-      <c r="G30" s="266"/>
-      <c r="H30" s="266"/>
-      <c r="I30" s="267"/>
-      <c r="J30" s="292" t="s">
-        <v>258</v>
-      </c>
-      <c r="K30" s="293"/>
-      <c r="L30" s="293"/>
-      <c r="M30" s="294" t="s">
-        <v>292</v>
-      </c>
-      <c r="N30" s="295"/>
-      <c r="O30" s="295"/>
-      <c r="P30" s="295"/>
-      <c r="Q30" s="296"/>
-      <c r="R30" s="231" t="s">
-        <v>282</v>
-      </c>
-      <c r="S30" s="232"/>
-      <c r="T30" s="232"/>
-      <c r="U30" s="232"/>
-      <c r="V30" s="232"/>
-      <c r="W30" s="232"/>
-      <c r="X30" s="232"/>
-      <c r="Y30" s="232"/>
-      <c r="Z30" s="232"/>
-      <c r="AA30" s="232"/>
-      <c r="AB30" s="232"/>
-      <c r="AC30" s="232"/>
-      <c r="AD30" s="232"/>
-      <c r="AE30" s="232"/>
-      <c r="AF30" s="232"/>
-      <c r="AG30" s="233"/>
-      <c r="AH30" s="257" t="s">
-        <v>281</v>
-      </c>
-      <c r="AI30" s="258"/>
-      <c r="AJ30" s="258"/>
-      <c r="AK30" s="258"/>
-      <c r="AL30" s="258"/>
-      <c r="AM30" s="258"/>
-      <c r="AN30" s="258"/>
-      <c r="AO30" s="258"/>
-      <c r="AP30" s="258"/>
-      <c r="AQ30" s="258"/>
-      <c r="AR30" s="258"/>
-      <c r="AS30" s="258"/>
-      <c r="AT30" s="258"/>
-      <c r="AU30" s="268"/>
-      <c r="AV30" s="237"/>
-      <c r="AW30" s="238"/>
-      <c r="AX30" s="239"/>
-      <c r="AY30" s="240"/>
-      <c r="AZ30" s="263"/>
-      <c r="BA30" s="264"/>
-      <c r="BB30" s="243"/>
-      <c r="BC30" s="244"/>
-      <c r="BD30" s="251"/>
-      <c r="BE30" s="252"/>
-      <c r="BF30" s="252"/>
-      <c r="BG30" s="252"/>
-      <c r="BH30" s="252"/>
-      <c r="BI30" s="252"/>
-      <c r="BJ30" s="252"/>
-      <c r="BK30" s="252"/>
-      <c r="BL30" s="252"/>
-      <c r="BM30" s="253"/>
-    </row>
-    <row r="31" spans="1:65" ht="216" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="254">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B31" s="255"/>
-      <c r="C31" s="265"/>
-      <c r="D31" s="266"/>
-      <c r="E31" s="266"/>
-      <c r="F31" s="266"/>
-      <c r="G31" s="266"/>
-      <c r="H31" s="266"/>
-      <c r="I31" s="267"/>
-      <c r="J31" s="292" t="s">
-        <v>258</v>
-      </c>
-      <c r="K31" s="293"/>
-      <c r="L31" s="293"/>
-      <c r="M31" s="294" t="s">
-        <v>292</v>
-      </c>
-      <c r="N31" s="295"/>
-      <c r="O31" s="295"/>
-      <c r="P31" s="295"/>
-      <c r="Q31" s="296"/>
-      <c r="R31" s="231" t="s">
-        <v>280</v>
-      </c>
-      <c r="S31" s="232"/>
-      <c r="T31" s="232"/>
-      <c r="U31" s="232"/>
-      <c r="V31" s="232"/>
-      <c r="W31" s="232"/>
-      <c r="X31" s="232"/>
-      <c r="Y31" s="232"/>
-      <c r="Z31" s="232"/>
-      <c r="AA31" s="232"/>
-      <c r="AB31" s="232"/>
-      <c r="AC31" s="232"/>
-      <c r="AD31" s="232"/>
-      <c r="AE31" s="232"/>
-      <c r="AF31" s="232"/>
-      <c r="AG31" s="233"/>
-      <c r="AH31" s="257" t="s">
-        <v>281</v>
-      </c>
-      <c r="AI31" s="258"/>
-      <c r="AJ31" s="258"/>
-      <c r="AK31" s="258"/>
-      <c r="AL31" s="258"/>
-      <c r="AM31" s="258"/>
-      <c r="AN31" s="258"/>
-      <c r="AO31" s="258"/>
-      <c r="AP31" s="258"/>
-      <c r="AQ31" s="258"/>
-      <c r="AR31" s="258"/>
-      <c r="AS31" s="258"/>
-      <c r="AT31" s="258"/>
-      <c r="AU31" s="268"/>
-      <c r="AV31" s="237"/>
-      <c r="AW31" s="238"/>
-      <c r="AX31" s="239"/>
-      <c r="AY31" s="240"/>
-      <c r="AZ31" s="263"/>
-      <c r="BA31" s="264"/>
-      <c r="BB31" s="243"/>
-      <c r="BC31" s="244"/>
-      <c r="BD31" s="251"/>
-      <c r="BE31" s="252"/>
-      <c r="BF31" s="252"/>
-      <c r="BG31" s="252"/>
-      <c r="BH31" s="252"/>
-      <c r="BI31" s="252"/>
-      <c r="BJ31" s="252"/>
-      <c r="BK31" s="252"/>
-      <c r="BL31" s="252"/>
-      <c r="BM31" s="253"/>
-    </row>
-    <row r="32" spans="1:65" ht="216" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="254">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B32" s="255"/>
-      <c r="C32" s="265"/>
-      <c r="D32" s="266"/>
-      <c r="E32" s="266"/>
-      <c r="F32" s="266"/>
-      <c r="G32" s="266"/>
-      <c r="H32" s="266"/>
-      <c r="I32" s="267"/>
-      <c r="J32" s="292" t="s">
-        <v>258</v>
-      </c>
-      <c r="K32" s="293"/>
-      <c r="L32" s="293"/>
-      <c r="M32" s="294" t="s">
-        <v>292</v>
-      </c>
-      <c r="N32" s="295"/>
-      <c r="O32" s="295"/>
-      <c r="P32" s="295"/>
-      <c r="Q32" s="296"/>
-      <c r="R32" s="231" t="s">
-        <v>283</v>
-      </c>
-      <c r="S32" s="232"/>
-      <c r="T32" s="232"/>
-      <c r="U32" s="232"/>
-      <c r="V32" s="232"/>
-      <c r="W32" s="232"/>
-      <c r="X32" s="232"/>
-      <c r="Y32" s="232"/>
-      <c r="Z32" s="232"/>
-      <c r="AA32" s="232"/>
-      <c r="AB32" s="232"/>
-      <c r="AC32" s="232"/>
-      <c r="AD32" s="232"/>
-      <c r="AE32" s="232"/>
-      <c r="AF32" s="232"/>
-      <c r="AG32" s="233"/>
-      <c r="AH32" s="257" t="s">
-        <v>281</v>
-      </c>
-      <c r="AI32" s="258"/>
-      <c r="AJ32" s="258"/>
-      <c r="AK32" s="258"/>
-      <c r="AL32" s="258"/>
-      <c r="AM32" s="258"/>
-      <c r="AN32" s="258"/>
-      <c r="AO32" s="258"/>
-      <c r="AP32" s="258"/>
-      <c r="AQ32" s="258"/>
-      <c r="AR32" s="258"/>
-      <c r="AS32" s="258"/>
-      <c r="AT32" s="258"/>
-      <c r="AU32" s="268"/>
-      <c r="AV32" s="237"/>
-      <c r="AW32" s="238"/>
-      <c r="AX32" s="239"/>
-      <c r="AY32" s="240"/>
-      <c r="AZ32" s="263"/>
-      <c r="BA32" s="264"/>
-      <c r="BB32" s="243"/>
-      <c r="BC32" s="244"/>
-      <c r="BD32" s="251"/>
-      <c r="BE32" s="252"/>
-      <c r="BF32" s="252"/>
-      <c r="BG32" s="252"/>
-      <c r="BH32" s="252"/>
-      <c r="BI32" s="252"/>
-      <c r="BJ32" s="252"/>
-      <c r="BK32" s="252"/>
-      <c r="BL32" s="252"/>
-      <c r="BM32" s="253"/>
-    </row>
-    <row r="33" spans="1:65" ht="216" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="67"/>
-      <c r="AC33" s="67"/>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="67"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="68"/>
-      <c r="AJ33" s="68"/>
-      <c r="AK33" s="68"/>
-      <c r="AL33" s="68"/>
-      <c r="AM33" s="68"/>
-      <c r="AN33" s="68"/>
-      <c r="AO33" s="68"/>
-      <c r="AP33" s="68"/>
-      <c r="AQ33" s="68"/>
-      <c r="AR33" s="68"/>
-      <c r="AS33" s="68"/>
-      <c r="AT33" s="68"/>
-      <c r="AU33" s="68"/>
-      <c r="AV33" s="69"/>
-      <c r="AW33" s="69"/>
-      <c r="AX33" s="69"/>
-      <c r="AY33" s="70"/>
-      <c r="AZ33" s="71"/>
-      <c r="BA33" s="71"/>
-      <c r="BB33" s="65"/>
-      <c r="BC33" s="65"/>
-      <c r="BD33" s="72"/>
-      <c r="BE33" s="72"/>
-      <c r="BF33" s="72"/>
-      <c r="BG33" s="72"/>
-      <c r="BH33" s="72"/>
-      <c r="BI33" s="72"/>
-      <c r="BJ33" s="72"/>
-      <c r="BK33" s="72"/>
-      <c r="BL33" s="72"/>
-      <c r="BM33" s="72"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="67"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="68"/>
+      <c r="AI28" s="68"/>
+      <c r="AJ28" s="68"/>
+      <c r="AK28" s="68"/>
+      <c r="AL28" s="68"/>
+      <c r="AM28" s="68"/>
+      <c r="AN28" s="68"/>
+      <c r="AO28" s="68"/>
+      <c r="AP28" s="68"/>
+      <c r="AQ28" s="68"/>
+      <c r="AR28" s="68"/>
+      <c r="AS28" s="68"/>
+      <c r="AT28" s="68"/>
+      <c r="AU28" s="68"/>
+      <c r="AV28" s="69"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="70"/>
+      <c r="AZ28" s="71"/>
+      <c r="BA28" s="71"/>
+      <c r="BB28" s="65"/>
+      <c r="BC28" s="65"/>
+      <c r="BD28" s="72"/>
+      <c r="BE28" s="72"/>
+      <c r="BF28" s="72"/>
+      <c r="BG28" s="72"/>
+      <c r="BH28" s="72"/>
+      <c r="BI28" s="72"/>
+      <c r="BJ28" s="72"/>
+      <c r="BK28" s="72"/>
+      <c r="BL28" s="72"/>
+      <c r="BM28" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="284">
-    <mergeCell ref="BD15:BM15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:AG15"/>
-    <mergeCell ref="AH15:AU15"/>
-    <mergeCell ref="AV15:AX15"/>
-    <mergeCell ref="AY15:BA15"/>
-    <mergeCell ref="BB15:BC15"/>
-    <mergeCell ref="BD13:BM13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:AG14"/>
-    <mergeCell ref="AH14:AU14"/>
-    <mergeCell ref="AV14:AX14"/>
-    <mergeCell ref="AY14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BM14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:AG13"/>
-    <mergeCell ref="AH13:AU13"/>
-    <mergeCell ref="AV13:AX13"/>
-    <mergeCell ref="AY13:BA13"/>
-    <mergeCell ref="BB13:BC13"/>
+  <mergeCells count="234">
     <mergeCell ref="BD11:BM11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R12:AG12"/>
-    <mergeCell ref="AH12:AU12"/>
-    <mergeCell ref="AV12:AX12"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="BB12:BC12"/>
-    <mergeCell ref="BD12:BM12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="J11:L11"/>
@@ -27502,17 +27187,37 @@
     <mergeCell ref="AY8:BA8"/>
     <mergeCell ref="BB8:BC8"/>
     <mergeCell ref="BD8:BM8"/>
-    <mergeCell ref="BD16:BM16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:AG17"/>
-    <mergeCell ref="AH17:AU17"/>
-    <mergeCell ref="AV17:AX17"/>
-    <mergeCell ref="AY17:BA17"/>
-    <mergeCell ref="BB17:BC17"/>
-    <mergeCell ref="BD17:BM17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R12:AG12"/>
+    <mergeCell ref="AH12:AU12"/>
+    <mergeCell ref="AV12:AX12"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="BB12:BC12"/>
+    <mergeCell ref="BD12:BM12"/>
+    <mergeCell ref="BD13:BM13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:AG14"/>
+    <mergeCell ref="AH14:AU14"/>
+    <mergeCell ref="AV14:AX14"/>
+    <mergeCell ref="AY14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BM14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:AG13"/>
+    <mergeCell ref="AH13:AU13"/>
+    <mergeCell ref="AV13:AX13"/>
+    <mergeCell ref="AY13:BA13"/>
+    <mergeCell ref="BB13:BC13"/>
+    <mergeCell ref="BD15:BM15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="J16:L16"/>
@@ -27522,52 +27227,58 @@
     <mergeCell ref="AV16:AX16"/>
     <mergeCell ref="AY16:BA16"/>
     <mergeCell ref="BB16:BC16"/>
-    <mergeCell ref="BD18:BM18"/>
+    <mergeCell ref="BD16:BM16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:AG15"/>
+    <mergeCell ref="AH15:AU15"/>
+    <mergeCell ref="AV15:AX15"/>
+    <mergeCell ref="AY15:BA15"/>
+    <mergeCell ref="BB15:BC15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:AG17"/>
+    <mergeCell ref="AH17:AU17"/>
+    <mergeCell ref="AY17:BA17"/>
+    <mergeCell ref="BB17:BC17"/>
+    <mergeCell ref="BD17:BM17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:AG18"/>
+    <mergeCell ref="AH18:AU18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="R21:AG21"/>
+    <mergeCell ref="AH21:AU21"/>
+    <mergeCell ref="AY24:BA24"/>
+    <mergeCell ref="BB24:BC24"/>
+    <mergeCell ref="BD24:BM24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="AV19:AX19"/>
+    <mergeCell ref="AY19:BA19"/>
+    <mergeCell ref="BB19:BC19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="R20:AG20"/>
+    <mergeCell ref="AH20:AU20"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="M19:Q19"/>
     <mergeCell ref="R19:AG19"/>
     <mergeCell ref="AH19:AU19"/>
-    <mergeCell ref="AV19:AX19"/>
-    <mergeCell ref="AY19:BA19"/>
-    <mergeCell ref="BB19:BC19"/>
-    <mergeCell ref="BD19:BM19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:AG18"/>
-    <mergeCell ref="AH18:AU18"/>
-    <mergeCell ref="AV18:AX18"/>
-    <mergeCell ref="AY18:BA18"/>
-    <mergeCell ref="BB18:BC18"/>
-    <mergeCell ref="BD20:BM20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="R21:AG21"/>
-    <mergeCell ref="AH21:AU21"/>
-    <mergeCell ref="AV21:AX21"/>
-    <mergeCell ref="AY21:BA21"/>
-    <mergeCell ref="BB21:BC21"/>
-    <mergeCell ref="BD21:BM21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="R20:AG20"/>
-    <mergeCell ref="AH20:AU20"/>
-    <mergeCell ref="AV20:AX20"/>
-    <mergeCell ref="AY20:BA20"/>
-    <mergeCell ref="BB20:BC20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:AG22"/>
-    <mergeCell ref="AH22:AU22"/>
+    <mergeCell ref="AV22:AX22"/>
     <mergeCell ref="AY22:BA22"/>
     <mergeCell ref="BB22:BC22"/>
     <mergeCell ref="BD22:BM22"/>
@@ -27577,72 +27288,36 @@
     <mergeCell ref="M23:Q23"/>
     <mergeCell ref="R23:AG23"/>
     <mergeCell ref="AH23:AU23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="R26:AG26"/>
-    <mergeCell ref="AH26:AU26"/>
-    <mergeCell ref="AY29:BA29"/>
-    <mergeCell ref="BB29:BC29"/>
-    <mergeCell ref="BD29:BM29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="AV24:AX24"/>
-    <mergeCell ref="AY24:BA24"/>
-    <mergeCell ref="BB24:BC24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:AG25"/>
-    <mergeCell ref="AH25:AU25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:AG24"/>
-    <mergeCell ref="AH24:AU24"/>
-    <mergeCell ref="AV27:AX27"/>
-    <mergeCell ref="AY27:BA27"/>
-    <mergeCell ref="BB27:BC27"/>
-    <mergeCell ref="BD27:BM27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="R28:AG28"/>
-    <mergeCell ref="AH28:AU28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="R27:AG27"/>
-    <mergeCell ref="AH27:AU27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:AG22"/>
+    <mergeCell ref="AH22:AU22"/>
     <mergeCell ref="F1:P1"/>
     <mergeCell ref="V1:AE1"/>
     <mergeCell ref="AM1:AU1"/>
     <mergeCell ref="AZ1:BE1"/>
     <mergeCell ref="BJ1:BM1"/>
     <mergeCell ref="F2:P2"/>
-    <mergeCell ref="AV28:AX28"/>
-    <mergeCell ref="AY28:BA28"/>
-    <mergeCell ref="BB28:BC28"/>
-    <mergeCell ref="BD28:BM28"/>
-    <mergeCell ref="AV26:AX26"/>
-    <mergeCell ref="AY26:BA26"/>
-    <mergeCell ref="BB26:BC26"/>
-    <mergeCell ref="BD26:BM26"/>
-    <mergeCell ref="AV25:AX25"/>
-    <mergeCell ref="AY25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="BD25:BM25"/>
-    <mergeCell ref="BD24:BM24"/>
     <mergeCell ref="AV23:AX23"/>
     <mergeCell ref="AY23:BA23"/>
     <mergeCell ref="BB23:BC23"/>
     <mergeCell ref="BD23:BM23"/>
-    <mergeCell ref="AV22:AX22"/>
+    <mergeCell ref="AV21:AX21"/>
+    <mergeCell ref="AY21:BA21"/>
+    <mergeCell ref="BB21:BC21"/>
+    <mergeCell ref="BD21:BM21"/>
+    <mergeCell ref="AV20:AX20"/>
+    <mergeCell ref="AY20:BA20"/>
+    <mergeCell ref="BB20:BC20"/>
+    <mergeCell ref="BD20:BM20"/>
+    <mergeCell ref="BD19:BM19"/>
+    <mergeCell ref="AV18:AX18"/>
+    <mergeCell ref="AY18:BA18"/>
+    <mergeCell ref="BB18:BC18"/>
+    <mergeCell ref="BD18:BM18"/>
+    <mergeCell ref="AV17:AX17"/>
     <mergeCell ref="V2:AE2"/>
     <mergeCell ref="AM2:AU2"/>
     <mergeCell ref="AZ2:BE2"/>
@@ -27661,45 +27336,45 @@
     <mergeCell ref="AV5:AX6"/>
     <mergeCell ref="AY5:BA6"/>
     <mergeCell ref="BB5:BC6"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="BD30:BM30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="R31:AG31"/>
-    <mergeCell ref="AH31:AU31"/>
-    <mergeCell ref="AV31:AX31"/>
-    <mergeCell ref="AY31:BA31"/>
-    <mergeCell ref="BB31:BC31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="R30:AG30"/>
-    <mergeCell ref="AH30:AU30"/>
-    <mergeCell ref="AV30:AX30"/>
-    <mergeCell ref="AY30:BA30"/>
-    <mergeCell ref="BB30:BC30"/>
-    <mergeCell ref="R29:AG29"/>
-    <mergeCell ref="AH29:AU29"/>
-    <mergeCell ref="AV29:AX29"/>
-    <mergeCell ref="BD32:BM32"/>
-    <mergeCell ref="BD31:BM31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="R32:AG32"/>
-    <mergeCell ref="AH32:AU32"/>
-    <mergeCell ref="AV32:AX32"/>
-    <mergeCell ref="AY32:BA32"/>
-    <mergeCell ref="BB32:BC32"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="BD25:BM25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="R26:AG26"/>
+    <mergeCell ref="AH26:AU26"/>
+    <mergeCell ref="AV26:AX26"/>
+    <mergeCell ref="AY26:BA26"/>
+    <mergeCell ref="BB26:BC26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:AG25"/>
+    <mergeCell ref="AH25:AU25"/>
+    <mergeCell ref="AV25:AX25"/>
+    <mergeCell ref="AY25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="R24:AG24"/>
+    <mergeCell ref="AH24:AU24"/>
+    <mergeCell ref="AV24:AX24"/>
+    <mergeCell ref="BD27:BM27"/>
+    <mergeCell ref="BD26:BM26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="R27:AG27"/>
+    <mergeCell ref="AH27:AU27"/>
+    <mergeCell ref="AV27:AX27"/>
+    <mergeCell ref="AY27:BA27"/>
+    <mergeCell ref="BB27:BC27"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J28">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27712,7 +27387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="BD9" sqref="BD9:BM9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2.28515625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -28242,7 +27919,7 @@
       <c r="AF8" s="232"/>
       <c r="AG8" s="233"/>
       <c r="AH8" s="257" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AI8" s="258"/>
       <c r="AJ8" s="258"/>
@@ -28347,12 +28024,12 @@
       <c r="AW9" s="238"/>
       <c r="AX9" s="239"/>
       <c r="AY9" s="240" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AZ9" s="263"/>
       <c r="BA9" s="264"/>
       <c r="BB9" s="243" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="BC9" s="244"/>
       <c r="BD9" s="251"/>
@@ -28431,7 +28108,7 @@
       <c r="AW10" s="238"/>
       <c r="AX10" s="239"/>
       <c r="AY10" s="240" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AZ10" s="263"/>
       <c r="BA10" s="264"/>
@@ -28515,12 +28192,12 @@
       <c r="AW11" s="238"/>
       <c r="AX11" s="239"/>
       <c r="AY11" s="240" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AZ11" s="263"/>
       <c r="BA11" s="264"/>
       <c r="BB11" s="243" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="BC11" s="244"/>
       <c r="BD11" s="251"/>
@@ -28599,16 +28276,16 @@
       <c r="AW12" s="238"/>
       <c r="AX12" s="239"/>
       <c r="AY12" s="240" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AZ12" s="263"/>
       <c r="BA12" s="264"/>
       <c r="BB12" s="243" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BC12" s="244"/>
       <c r="BD12" s="251" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BE12" s="252"/>
       <c r="BF12" s="252"/>
@@ -28811,8 +28488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1:BE1"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="BD10" sqref="BD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -29235,7 +28912,7 @@
       <c r="K7" s="293"/>
       <c r="L7" s="293"/>
       <c r="M7" s="392" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N7" s="393"/>
       <c r="O7" s="393"/>
@@ -29338,7 +29015,7 @@
       <c r="AF8" s="232"/>
       <c r="AG8" s="233"/>
       <c r="AH8" s="257" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AI8" s="258"/>
       <c r="AJ8" s="258"/>
@@ -29359,12 +29036,12 @@
       <c r="AW8" s="238"/>
       <c r="AX8" s="239"/>
       <c r="AY8" s="240" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AZ8" s="241"/>
       <c r="BA8" s="242"/>
       <c r="BB8" s="243" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="BC8" s="244"/>
       <c r="BD8" s="251"/>
@@ -29417,7 +29094,7 @@
       <c r="AF9" s="232"/>
       <c r="AG9" s="233"/>
       <c r="AH9" s="231" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AI9" s="232"/>
       <c r="AJ9" s="232"/>
@@ -29438,12 +29115,12 @@
       <c r="AW9" s="238"/>
       <c r="AX9" s="239"/>
       <c r="AY9" s="240" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AZ9" s="241"/>
       <c r="BA9" s="242"/>
       <c r="BB9" s="243" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="BC9" s="244"/>
       <c r="BD9" s="46"/>
@@ -29496,7 +29173,7 @@
       <c r="AF10" s="232"/>
       <c r="AG10" s="233"/>
       <c r="AH10" s="231" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AI10" s="232"/>
       <c r="AJ10" s="232"/>
@@ -29517,12 +29194,12 @@
       <c r="AW10" s="238"/>
       <c r="AX10" s="239"/>
       <c r="AY10" s="240" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AZ10" s="241"/>
       <c r="BA10" s="242"/>
       <c r="BB10" s="243" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="BC10" s="244"/>
       <c r="BD10" s="46"/>
@@ -29557,7 +29234,7 @@
       <c r="P11" s="261"/>
       <c r="Q11" s="262"/>
       <c r="R11" s="231" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="S11" s="232"/>
       <c r="T11" s="232"/>
@@ -29596,12 +29273,12 @@
       <c r="AW11" s="238"/>
       <c r="AX11" s="239"/>
       <c r="AY11" s="240" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AZ11" s="241"/>
       <c r="BA11" s="242"/>
       <c r="BB11" s="243" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="BC11" s="244"/>
       <c r="BD11" s="46"/>
@@ -29636,7 +29313,7 @@
       <c r="P12" s="261"/>
       <c r="Q12" s="262"/>
       <c r="R12" s="389" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S12" s="390"/>
       <c r="T12" s="390"/>
@@ -29654,7 +29331,7 @@
       <c r="AF12" s="390"/>
       <c r="AG12" s="391"/>
       <c r="AH12" s="231" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AI12" s="232"/>
       <c r="AJ12" s="232"/>
@@ -29675,24 +29352,26 @@
       <c r="AW12" s="238"/>
       <c r="AX12" s="239"/>
       <c r="AY12" s="240" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AZ12" s="241"/>
       <c r="BA12" s="242"/>
       <c r="BB12" s="243" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="BC12" s="244"/>
-      <c r="BD12" s="46"/>
-      <c r="BE12" s="47"/>
-      <c r="BF12" s="47"/>
-      <c r="BG12" s="47"/>
-      <c r="BH12" s="47"/>
-      <c r="BI12" s="47"/>
-      <c r="BJ12" s="47"/>
-      <c r="BK12" s="47"/>
-      <c r="BL12" s="47"/>
-      <c r="BM12" s="48"/>
+      <c r="BD12" s="228" t="s">
+        <v>675</v>
+      </c>
+      <c r="BE12" s="229"/>
+      <c r="BF12" s="229"/>
+      <c r="BG12" s="229"/>
+      <c r="BH12" s="229"/>
+      <c r="BI12" s="229"/>
+      <c r="BJ12" s="229"/>
+      <c r="BK12" s="229"/>
+      <c r="BL12" s="229"/>
+      <c r="BM12" s="230"/>
     </row>
     <row r="13" spans="1:65" ht="288" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
@@ -29715,7 +29394,7 @@
       <c r="P13" s="261"/>
       <c r="Q13" s="262"/>
       <c r="R13" s="231" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="S13" s="232"/>
       <c r="T13" s="232"/>
@@ -29733,7 +29412,7 @@
       <c r="AF13" s="232"/>
       <c r="AG13" s="233"/>
       <c r="AH13" s="231" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AI13" s="232"/>
       <c r="AJ13" s="232"/>
@@ -29754,12 +29433,12 @@
       <c r="AW13" s="238"/>
       <c r="AX13" s="239"/>
       <c r="AY13" s="240" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AZ13" s="241"/>
       <c r="BA13" s="242"/>
       <c r="BB13" s="243" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="BC13" s="244"/>
       <c r="BD13" s="46"/>
@@ -29787,7 +29466,7 @@
       <c r="K14" s="50"/>
       <c r="L14" s="51"/>
       <c r="M14" s="245" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N14" s="246"/>
       <c r="O14" s="246"/>
@@ -29834,7 +29513,7 @@
       <c r="BB14" s="44"/>
       <c r="BC14" s="45"/>
       <c r="BD14" s="228" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="BE14" s="229"/>
       <c r="BF14" s="229"/>
@@ -29906,12 +29585,12 @@
       <c r="AW15" s="238"/>
       <c r="AX15" s="239"/>
       <c r="AY15" s="240" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AZ15" s="241"/>
       <c r="BA15" s="242"/>
       <c r="BB15" s="243" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="BC15" s="244"/>
       <c r="BD15" s="46"/>
@@ -29946,7 +29625,7 @@
       <c r="P16" s="53"/>
       <c r="Q16" s="54"/>
       <c r="R16" s="231" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="S16" s="232"/>
       <c r="T16" s="232"/>
@@ -29985,12 +29664,12 @@
       <c r="AW16" s="238"/>
       <c r="AX16" s="239"/>
       <c r="AY16" s="240" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AZ16" s="241"/>
       <c r="BA16" s="242"/>
       <c r="BB16" s="243" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="BC16" s="244"/>
       <c r="BD16" s="46"/>
@@ -30025,7 +29704,7 @@
       <c r="P17" s="53"/>
       <c r="Q17" s="54"/>
       <c r="R17" s="231" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="S17" s="232"/>
       <c r="T17" s="232"/>
@@ -30064,12 +29743,12 @@
       <c r="AW17" s="238"/>
       <c r="AX17" s="239"/>
       <c r="AY17" s="240" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AZ17" s="241"/>
       <c r="BA17" s="242"/>
       <c r="BB17" s="243" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="BC17" s="244"/>
       <c r="BD17" s="46"/>
@@ -30104,7 +29783,7 @@
       <c r="P18" s="53"/>
       <c r="Q18" s="54"/>
       <c r="R18" s="231" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S18" s="232"/>
       <c r="T18" s="232"/>
@@ -30143,12 +29822,12 @@
       <c r="AW18" s="238"/>
       <c r="AX18" s="239"/>
       <c r="AY18" s="240" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AZ18" s="241"/>
       <c r="BA18" s="242"/>
       <c r="BB18" s="243" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="BC18" s="244"/>
       <c r="BD18" s="46"/>
@@ -30183,7 +29862,7 @@
       <c r="P19" s="53"/>
       <c r="Q19" s="54"/>
       <c r="R19" s="231" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="S19" s="232"/>
       <c r="T19" s="232"/>
@@ -30222,12 +29901,12 @@
       <c r="AW19" s="238"/>
       <c r="AX19" s="239"/>
       <c r="AY19" s="240" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AZ19" s="241"/>
       <c r="BA19" s="242"/>
       <c r="BB19" s="243" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BC19" s="244"/>
       <c r="BD19" s="46"/>
@@ -30923,7 +30602,8 @@
       <c r="BM29" s="374"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="123">
+    <mergeCell ref="BD12:BM12"/>
     <mergeCell ref="F1:P1"/>
     <mergeCell ref="V1:AE1"/>
     <mergeCell ref="AM1:AU1"/>
@@ -31091,7 +30771,7 @@
       <c r="D1" s="82"/>
       <c r="E1" s="82"/>
       <c r="F1" s="463" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G1" s="464"/>
       <c r="H1" s="464"/>
@@ -31111,7 +30791,7 @@
       <c r="T1" s="82"/>
       <c r="U1" s="82"/>
       <c r="V1" s="455" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="W1" s="455"/>
       <c r="X1" s="455"/>
@@ -31770,7 +31450,7 @@
       <c r="T8" s="399"/>
       <c r="U8" s="399"/>
       <c r="V8" s="400" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W8" s="401"/>
       <c r="X8" s="401"/>
@@ -31785,7 +31465,7 @@
       <c r="AG8" s="401"/>
       <c r="AH8" s="402"/>
       <c r="AI8" s="445" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AJ8" s="408" t="s">
         <v>109</v>
@@ -31821,7 +31501,7 @@
       <c r="BI8" s="401"/>
       <c r="BJ8" s="402"/>
       <c r="BK8" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL8" s="397"/>
       <c r="BM8" s="396"/>
@@ -31912,7 +31592,7 @@
       <c r="BI9" s="404"/>
       <c r="BJ9" s="405"/>
       <c r="BK9" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL9" s="397"/>
       <c r="BM9" s="396"/>
@@ -32003,7 +31683,7 @@
       <c r="BI10" s="404"/>
       <c r="BJ10" s="405"/>
       <c r="BK10" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL10" s="397"/>
       <c r="BM10" s="396"/>
@@ -32037,13 +31717,13 @@
       <c r="F11" s="398"/>
       <c r="G11" s="398"/>
       <c r="H11" s="411" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I11" s="411"/>
       <c r="J11" s="411"/>
       <c r="K11" s="411"/>
       <c r="L11" s="425" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M11" s="425"/>
       <c r="N11" s="425"/>
@@ -32069,7 +31749,7 @@
       <c r="AH11" s="405"/>
       <c r="AI11" s="446"/>
       <c r="AJ11" s="412" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AK11" s="413"/>
       <c r="AL11" s="413"/>
@@ -32098,7 +31778,7 @@
       <c r="BI11" s="404"/>
       <c r="BJ11" s="405"/>
       <c r="BK11" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL11" s="397"/>
       <c r="BM11" s="396"/>
@@ -32164,7 +31844,7 @@
       <c r="AH12" s="405"/>
       <c r="AI12" s="446"/>
       <c r="AJ12" s="412" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AK12" s="413"/>
       <c r="AL12" s="413"/>
@@ -32193,7 +31873,7 @@
       <c r="BI12" s="404"/>
       <c r="BJ12" s="405"/>
       <c r="BK12" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL12" s="397"/>
       <c r="BM12" s="396"/>
@@ -32229,13 +31909,13 @@
       <c r="F13" s="398"/>
       <c r="G13" s="398"/>
       <c r="H13" s="411" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I13" s="411"/>
       <c r="J13" s="411"/>
       <c r="K13" s="411"/>
       <c r="L13" s="411" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M13" s="411"/>
       <c r="N13" s="411"/>
@@ -32290,7 +31970,7 @@
       <c r="BI13" s="404"/>
       <c r="BJ13" s="405"/>
       <c r="BK13" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL13" s="397"/>
       <c r="BM13" s="396"/>
@@ -32324,13 +32004,13 @@
       <c r="F14" s="398"/>
       <c r="G14" s="398"/>
       <c r="H14" s="411" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I14" s="411"/>
       <c r="J14" s="411"/>
       <c r="K14" s="411"/>
       <c r="L14" s="411" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M14" s="411"/>
       <c r="N14" s="411"/>
@@ -32356,7 +32036,7 @@
       <c r="AH14" s="405"/>
       <c r="AI14" s="446"/>
       <c r="AJ14" s="412" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AK14" s="413"/>
       <c r="AL14" s="413"/>
@@ -32385,7 +32065,7 @@
       <c r="BI14" s="404"/>
       <c r="BJ14" s="405"/>
       <c r="BK14" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL14" s="397"/>
       <c r="BM14" s="396"/>
@@ -32419,13 +32099,13 @@
       <c r="F15" s="398"/>
       <c r="G15" s="398"/>
       <c r="H15" s="411" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I15" s="411"/>
       <c r="J15" s="411"/>
       <c r="K15" s="411"/>
       <c r="L15" s="411" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M15" s="411"/>
       <c r="N15" s="411"/>
@@ -32451,7 +32131,7 @@
       <c r="AH15" s="405"/>
       <c r="AI15" s="446"/>
       <c r="AJ15" s="412" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AK15" s="413"/>
       <c r="AL15" s="413"/>
@@ -32480,7 +32160,7 @@
       <c r="BI15" s="404"/>
       <c r="BJ15" s="405"/>
       <c r="BK15" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL15" s="397"/>
       <c r="BM15" s="396"/>
@@ -32546,7 +32226,7 @@
       <c r="AH16" s="405"/>
       <c r="AI16" s="446"/>
       <c r="AJ16" s="412" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AK16" s="413"/>
       <c r="AL16" s="413"/>
@@ -32575,7 +32255,7 @@
       <c r="BI16" s="404"/>
       <c r="BJ16" s="405"/>
       <c r="BK16" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL16" s="397"/>
       <c r="BM16" s="396"/>
@@ -32609,13 +32289,13 @@
       <c r="F17" s="398"/>
       <c r="G17" s="398"/>
       <c r="H17" s="411" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I17" s="411"/>
       <c r="J17" s="411"/>
       <c r="K17" s="411"/>
       <c r="L17" s="425" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M17" s="425"/>
       <c r="N17" s="425"/>
@@ -32641,7 +32321,7 @@
       <c r="AH17" s="405"/>
       <c r="AI17" s="446"/>
       <c r="AJ17" s="412" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AK17" s="413"/>
       <c r="AL17" s="413"/>
@@ -32670,7 +32350,7 @@
       <c r="BI17" s="404"/>
       <c r="BJ17" s="405"/>
       <c r="BK17" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL17" s="397"/>
       <c r="BM17" s="396"/>
@@ -32702,13 +32382,13 @@
       <c r="F18" s="398"/>
       <c r="G18" s="398"/>
       <c r="H18" s="411" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I18" s="411"/>
       <c r="J18" s="411"/>
       <c r="K18" s="411"/>
       <c r="L18" s="425" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M18" s="425"/>
       <c r="N18" s="425"/>
@@ -32734,7 +32414,7 @@
       <c r="AH18" s="405"/>
       <c r="AI18" s="446"/>
       <c r="AJ18" s="422" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AK18" s="423"/>
       <c r="AL18" s="423"/>
@@ -32763,7 +32443,7 @@
       <c r="BI18" s="404"/>
       <c r="BJ18" s="405"/>
       <c r="BK18" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL18" s="397"/>
       <c r="BM18" s="396"/>
@@ -32825,7 +32505,7 @@
       <c r="AH19" s="405"/>
       <c r="AI19" s="448"/>
       <c r="AJ19" s="422" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AK19" s="423"/>
       <c r="AL19" s="423"/>
@@ -32854,12 +32534,12 @@
       <c r="BI19" s="404"/>
       <c r="BJ19" s="405"/>
       <c r="BK19" s="395" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BL19" s="397"/>
       <c r="BM19" s="396"/>
       <c r="BN19" s="415" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BO19" s="416"/>
       <c r="BP19" s="416"/>
@@ -32924,7 +32604,7 @@
         <v>143</v>
       </c>
       <c r="AJ20" s="408" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AK20" s="409"/>
       <c r="AL20" s="409"/>
@@ -32953,7 +32633,7 @@
       <c r="BI20" s="404"/>
       <c r="BJ20" s="405"/>
       <c r="BK20" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL20" s="397"/>
       <c r="BM20" s="396"/>
@@ -33015,7 +32695,7 @@
       <c r="AH21" s="405"/>
       <c r="AI21" s="446"/>
       <c r="AJ21" s="422" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AK21" s="423"/>
       <c r="AL21" s="423"/>
@@ -33044,12 +32724,12 @@
       <c r="BI21" s="404"/>
       <c r="BJ21" s="405"/>
       <c r="BK21" s="395" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BL21" s="397"/>
       <c r="BM21" s="396"/>
       <c r="BN21" s="415" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BO21" s="416"/>
       <c r="BP21" s="416"/>
@@ -33114,7 +32794,7 @@
       <c r="AH22" s="405"/>
       <c r="AI22" s="446"/>
       <c r="AJ22" s="412" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AK22" s="413"/>
       <c r="AL22" s="413"/>
@@ -33143,7 +32823,7 @@
       <c r="BI22" s="404"/>
       <c r="BJ22" s="405"/>
       <c r="BK22" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL22" s="397"/>
       <c r="BM22" s="396"/>
@@ -33242,7 +32922,7 @@
       <c r="BI23" s="404"/>
       <c r="BJ23" s="405"/>
       <c r="BK23" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL23" s="397"/>
       <c r="BM23" s="396"/>
@@ -33310,7 +32990,7 @@
       <c r="AH24" s="405"/>
       <c r="AI24" s="446"/>
       <c r="AJ24" s="412" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AK24" s="413"/>
       <c r="AL24" s="413"/>
@@ -33339,7 +33019,7 @@
       <c r="BI24" s="404"/>
       <c r="BJ24" s="405"/>
       <c r="BK24" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL24" s="397"/>
       <c r="BM24" s="396"/>
@@ -33436,7 +33116,7 @@
       <c r="BI25" s="404"/>
       <c r="BJ25" s="405"/>
       <c r="BK25" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL25" s="397"/>
       <c r="BM25" s="396"/>
@@ -33533,7 +33213,7 @@
       <c r="BI26" s="404"/>
       <c r="BJ26" s="405"/>
       <c r="BK26" s="395" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="BL26" s="397"/>
       <c r="BM26" s="396"/>
@@ -33630,7 +33310,7 @@
       <c r="BI27" s="404"/>
       <c r="BJ27" s="405"/>
       <c r="BK27" s="395" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="BL27" s="397"/>
       <c r="BM27" s="396"/>
@@ -33698,7 +33378,7 @@
       <c r="AH28" s="405"/>
       <c r="AI28" s="446"/>
       <c r="AJ28" s="412" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AK28" s="413"/>
       <c r="AL28" s="413"/>
@@ -33727,12 +33407,12 @@
       <c r="BI28" s="404"/>
       <c r="BJ28" s="405"/>
       <c r="BK28" s="395" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BL28" s="397"/>
       <c r="BM28" s="396"/>
       <c r="BN28" s="415" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BO28" s="416"/>
       <c r="BP28" s="416"/>
@@ -33794,7 +33474,7 @@
       <c r="AG29" s="401"/>
       <c r="AH29" s="402"/>
       <c r="AI29" s="445" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AJ29" s="408" t="s">
         <v>128</v>
@@ -33888,7 +33568,7 @@
       <c r="AH30" s="405"/>
       <c r="AI30" s="446"/>
       <c r="AJ30" s="422" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AK30" s="423"/>
       <c r="AL30" s="423"/>
@@ -33917,12 +33597,12 @@
       <c r="BI30" s="404"/>
       <c r="BJ30" s="405"/>
       <c r="BK30" s="395" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BL30" s="397"/>
       <c r="BM30" s="396"/>
       <c r="BN30" s="415" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BO30" s="416"/>
       <c r="BP30" s="416"/>
@@ -33953,20 +33633,20 @@
       <c r="F31" s="398"/>
       <c r="G31" s="398"/>
       <c r="H31" s="411" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I31" s="411"/>
       <c r="J31" s="411"/>
       <c r="K31" s="411"/>
       <c r="L31" s="411" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M31" s="411"/>
       <c r="N31" s="411"/>
       <c r="O31" s="411"/>
       <c r="P31" s="411"/>
       <c r="Q31" s="411" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="R31" s="411"/>
       <c r="S31" s="411"/>
@@ -34016,7 +33696,7 @@
       <c r="BI31" s="404"/>
       <c r="BJ31" s="405"/>
       <c r="BK31" s="395" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BL31" s="397"/>
       <c r="BM31" s="396"/>
@@ -34052,20 +33732,20 @@
       <c r="F32" s="401"/>
       <c r="G32" s="402"/>
       <c r="H32" s="411" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I32" s="411"/>
       <c r="J32" s="411"/>
       <c r="K32" s="411"/>
       <c r="L32" s="411" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M32" s="411"/>
       <c r="N32" s="411"/>
       <c r="O32" s="411"/>
       <c r="P32" s="411"/>
       <c r="Q32" s="411" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R32" s="411"/>
       <c r="S32" s="411"/>
@@ -34365,7 +34045,7 @@
       <c r="AH35" s="405"/>
       <c r="AI35" s="407"/>
       <c r="AJ35" s="422" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AK35" s="423"/>
       <c r="AL35" s="423"/>
@@ -34394,12 +34074,12 @@
       <c r="BI35" s="404"/>
       <c r="BJ35" s="405"/>
       <c r="BK35" s="395" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BL35" s="397"/>
       <c r="BM35" s="396"/>
       <c r="BN35" s="415" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BO35" s="416"/>
       <c r="BP35" s="416"/>
@@ -34430,13 +34110,13 @@
       <c r="F36" s="398"/>
       <c r="G36" s="398"/>
       <c r="H36" s="411" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I36" s="411"/>
       <c r="J36" s="411"/>
       <c r="K36" s="411"/>
       <c r="L36" s="411" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M36" s="411"/>
       <c r="N36" s="411"/>
@@ -34464,7 +34144,7 @@
       <c r="AH36" s="405"/>
       <c r="AI36" s="407"/>
       <c r="AJ36" s="412" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AK36" s="413"/>
       <c r="AL36" s="413"/>
@@ -34493,7 +34173,7 @@
       <c r="BI36" s="404"/>
       <c r="BJ36" s="405"/>
       <c r="BK36" s="395" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="BL36" s="397"/>
       <c r="BM36" s="396"/>
@@ -34533,7 +34213,7 @@
       <c r="J37" s="411"/>
       <c r="K37" s="411"/>
       <c r="L37" s="411" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M37" s="411"/>
       <c r="N37" s="411"/>
@@ -34561,7 +34241,7 @@
       <c r="AH37" s="405"/>
       <c r="AI37" s="407"/>
       <c r="AJ37" s="412" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AK37" s="413"/>
       <c r="AL37" s="413"/>
@@ -34632,7 +34312,7 @@
       <c r="J38" s="411"/>
       <c r="K38" s="411"/>
       <c r="L38" s="411" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M38" s="411"/>
       <c r="N38" s="411"/>
@@ -34660,7 +34340,7 @@
       <c r="AH38" s="405"/>
       <c r="AI38" s="407"/>
       <c r="AJ38" s="412" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AK38" s="413"/>
       <c r="AL38" s="413"/>
@@ -34723,13 +34403,13 @@
       <c r="F39" s="404"/>
       <c r="G39" s="405"/>
       <c r="H39" s="411" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I39" s="411"/>
       <c r="J39" s="411"/>
       <c r="K39" s="411"/>
       <c r="L39" s="411" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M39" s="411"/>
       <c r="N39" s="411"/>
@@ -34757,7 +34437,7 @@
       <c r="AH39" s="405"/>
       <c r="AI39" s="407"/>
       <c r="AJ39" s="412" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AK39" s="413"/>
       <c r="AL39" s="413"/>
@@ -34820,13 +34500,13 @@
       <c r="F40" s="404"/>
       <c r="G40" s="405"/>
       <c r="H40" s="411" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I40" s="411"/>
       <c r="J40" s="411"/>
       <c r="K40" s="411"/>
       <c r="L40" s="411" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M40" s="411"/>
       <c r="N40" s="411"/>
@@ -34854,7 +34534,7 @@
       <c r="AH40" s="405"/>
       <c r="AI40" s="407"/>
       <c r="AJ40" s="412" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AK40" s="413"/>
       <c r="AL40" s="413"/>
@@ -34917,7 +34597,7 @@
       <c r="F41" s="404"/>
       <c r="G41" s="405"/>
       <c r="H41" s="411" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I41" s="411"/>
       <c r="J41" s="411"/>
@@ -34951,7 +34631,7 @@
       <c r="AH41" s="405"/>
       <c r="AI41" s="407"/>
       <c r="AJ41" s="412" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AK41" s="413"/>
       <c r="AL41" s="413"/>
@@ -35020,7 +34700,7 @@
       <c r="J42" s="411"/>
       <c r="K42" s="411"/>
       <c r="L42" s="411" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M42" s="411"/>
       <c r="N42" s="411"/>
@@ -35048,7 +34728,7 @@
       <c r="AH42" s="405"/>
       <c r="AI42" s="407"/>
       <c r="AJ42" s="412" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AK42" s="413"/>
       <c r="AL42" s="413"/>
@@ -35137,7 +34817,7 @@
       <c r="AH43" s="405"/>
       <c r="AI43" s="407"/>
       <c r="AJ43" s="412" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AK43" s="413"/>
       <c r="AL43" s="413"/>
@@ -35166,12 +34846,12 @@
       <c r="BI43" s="404"/>
       <c r="BJ43" s="405"/>
       <c r="BK43" s="395" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BL43" s="397"/>
       <c r="BM43" s="396"/>
       <c r="BN43" s="415" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BO43" s="416"/>
       <c r="BP43" s="416"/>
@@ -35230,7 +34910,7 @@
       <c r="AH44" s="405"/>
       <c r="AI44" s="407"/>
       <c r="AJ44" s="412" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AK44" s="413"/>
       <c r="AL44" s="413"/>
@@ -35259,12 +34939,12 @@
       <c r="BI44" s="404"/>
       <c r="BJ44" s="405"/>
       <c r="BK44" s="395" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BL44" s="397"/>
       <c r="BM44" s="396"/>
       <c r="BN44" s="415" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BO44" s="416"/>
       <c r="BP44" s="416"/>
@@ -35311,7 +34991,7 @@
       <c r="T45" s="399"/>
       <c r="U45" s="399"/>
       <c r="V45" s="400" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="W45" s="401"/>
       <c r="X45" s="401"/>
@@ -35326,10 +35006,10 @@
       <c r="AG45" s="401"/>
       <c r="AH45" s="402"/>
       <c r="AI45" s="406" t="s">
+        <v>536</v>
+      </c>
+      <c r="AJ45" s="408" t="s">
         <v>537</v>
-      </c>
-      <c r="AJ45" s="408" t="s">
-        <v>538</v>
       </c>
       <c r="AK45" s="409"/>
       <c r="AL45" s="409"/>
@@ -35358,12 +35038,12 @@
       <c r="BI45" s="404"/>
       <c r="BJ45" s="405"/>
       <c r="BK45" s="395" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BL45" s="397"/>
       <c r="BM45" s="396"/>
       <c r="BN45" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO45" s="416"/>
       <c r="BP45" s="416"/>
@@ -35422,7 +35102,7 @@
       <c r="AH46" s="405"/>
       <c r="AI46" s="407"/>
       <c r="AJ46" s="408" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AK46" s="409"/>
       <c r="AL46" s="409"/>
@@ -35451,12 +35131,12 @@
       <c r="BI46" s="404"/>
       <c r="BJ46" s="405"/>
       <c r="BK46" s="395" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BL46" s="397"/>
       <c r="BM46" s="396"/>
       <c r="BN46" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO46" s="416"/>
       <c r="BP46" s="416"/>
@@ -35513,7 +35193,7 @@
       <c r="AH47" s="405"/>
       <c r="AI47" s="407"/>
       <c r="AJ47" s="422" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AK47" s="423"/>
       <c r="AL47" s="423"/>
@@ -35542,12 +35222,12 @@
       <c r="BI47" s="404"/>
       <c r="BJ47" s="405"/>
       <c r="BK47" s="395" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BL47" s="397"/>
       <c r="BM47" s="396"/>
       <c r="BN47" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO47" s="416"/>
       <c r="BP47" s="416"/>
@@ -35578,7 +35258,7 @@
       <c r="F48" s="398"/>
       <c r="G48" s="398"/>
       <c r="H48" s="411" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I48" s="411"/>
       <c r="J48" s="411"/>
@@ -35608,7 +35288,7 @@
       <c r="AH48" s="405"/>
       <c r="AI48" s="407"/>
       <c r="AJ48" s="412" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AK48" s="413"/>
       <c r="AL48" s="413"/>
@@ -35637,12 +35317,12 @@
       <c r="BI48" s="404"/>
       <c r="BJ48" s="405"/>
       <c r="BK48" s="395" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BL48" s="397"/>
       <c r="BM48" s="396"/>
       <c r="BN48" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO48" s="416"/>
       <c r="BP48" s="416"/>
@@ -35675,7 +35355,7 @@
       <c r="F49" s="401"/>
       <c r="G49" s="402"/>
       <c r="H49" s="411" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I49" s="411"/>
       <c r="J49" s="411"/>
@@ -35705,7 +35385,7 @@
       <c r="AH49" s="405"/>
       <c r="AI49" s="407"/>
       <c r="AJ49" s="412" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AK49" s="413"/>
       <c r="AL49" s="413"/>
@@ -35739,7 +35419,7 @@
       <c r="BL49" s="397"/>
       <c r="BM49" s="396"/>
       <c r="BN49" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO49" s="416"/>
       <c r="BP49" s="416"/>
@@ -35770,7 +35450,7 @@
       <c r="F50" s="404"/>
       <c r="G50" s="405"/>
       <c r="H50" s="411" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I50" s="411"/>
       <c r="J50" s="411"/>
@@ -35800,7 +35480,7 @@
       <c r="AH50" s="405"/>
       <c r="AI50" s="407"/>
       <c r="AJ50" s="412" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AK50" s="413"/>
       <c r="AL50" s="413"/>
@@ -35829,12 +35509,12 @@
       <c r="BI50" s="404"/>
       <c r="BJ50" s="405"/>
       <c r="BK50" s="395" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BL50" s="397"/>
       <c r="BM50" s="396"/>
       <c r="BN50" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO50" s="416"/>
       <c r="BP50" s="416"/>
@@ -35865,7 +35545,7 @@
       <c r="F51" s="404"/>
       <c r="G51" s="405"/>
       <c r="H51" s="411" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I51" s="411"/>
       <c r="J51" s="411"/>
@@ -35895,7 +35575,7 @@
       <c r="AH51" s="405"/>
       <c r="AI51" s="407"/>
       <c r="AJ51" s="412" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AK51" s="413"/>
       <c r="AL51" s="413"/>
@@ -35924,12 +35604,12 @@
       <c r="BI51" s="404"/>
       <c r="BJ51" s="405"/>
       <c r="BK51" s="395" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BL51" s="397"/>
       <c r="BM51" s="396"/>
       <c r="BN51" s="415" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="BO51" s="416"/>
       <c r="BP51" s="416"/>
@@ -35960,7 +35640,7 @@
       <c r="F52" s="404"/>
       <c r="G52" s="405"/>
       <c r="H52" s="411" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I52" s="411"/>
       <c r="J52" s="411"/>
@@ -35990,7 +35670,7 @@
       <c r="AH52" s="405"/>
       <c r="AI52" s="407"/>
       <c r="AJ52" s="412" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK52" s="413"/>
       <c r="AL52" s="413"/>
@@ -36019,12 +35699,12 @@
       <c r="BI52" s="404"/>
       <c r="BJ52" s="405"/>
       <c r="BK52" s="395" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BL52" s="397"/>
       <c r="BM52" s="396"/>
       <c r="BN52" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO52" s="416"/>
       <c r="BP52" s="416"/>
@@ -36055,7 +35735,7 @@
       <c r="F53" s="404"/>
       <c r="G53" s="405"/>
       <c r="H53" s="411" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I53" s="411"/>
       <c r="J53" s="411"/>
@@ -36085,7 +35765,7 @@
       <c r="AH53" s="405"/>
       <c r="AI53" s="407"/>
       <c r="AJ53" s="412" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK53" s="413"/>
       <c r="AL53" s="413"/>
@@ -36114,12 +35794,12 @@
       <c r="BI53" s="404"/>
       <c r="BJ53" s="405"/>
       <c r="BK53" s="395" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="BL53" s="397"/>
       <c r="BM53" s="396"/>
       <c r="BN53" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO53" s="416"/>
       <c r="BP53" s="416"/>
@@ -36152,13 +35832,13 @@
       <c r="F54" s="398"/>
       <c r="G54" s="398"/>
       <c r="H54" s="411" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I54" s="411"/>
       <c r="J54" s="411"/>
       <c r="K54" s="411"/>
       <c r="L54" s="411" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M54" s="411"/>
       <c r="N54" s="411"/>
@@ -36170,7 +35850,7 @@
       <c r="T54" s="399"/>
       <c r="U54" s="399"/>
       <c r="V54" s="400" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="W54" s="401"/>
       <c r="X54" s="401"/>
@@ -36185,10 +35865,10 @@
       <c r="AG54" s="401"/>
       <c r="AH54" s="402"/>
       <c r="AI54" s="406" t="s">
+        <v>556</v>
+      </c>
+      <c r="AJ54" s="412" t="s">
         <v>557</v>
-      </c>
-      <c r="AJ54" s="412" t="s">
-        <v>558</v>
       </c>
       <c r="AK54" s="409"/>
       <c r="AL54" s="409"/>
@@ -36217,12 +35897,12 @@
       <c r="BI54" s="404"/>
       <c r="BJ54" s="405"/>
       <c r="BK54" s="395" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BL54" s="397"/>
       <c r="BM54" s="396"/>
       <c r="BN54" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO54" s="416"/>
       <c r="BP54" s="416"/>
@@ -36253,13 +35933,13 @@
       <c r="F55" s="398"/>
       <c r="G55" s="398"/>
       <c r="H55" s="411" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I55" s="411"/>
       <c r="J55" s="411"/>
       <c r="K55" s="411"/>
       <c r="L55" s="411" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M55" s="411"/>
       <c r="N55" s="411"/>
@@ -36285,7 +35965,7 @@
       <c r="AH55" s="405"/>
       <c r="AI55" s="407"/>
       <c r="AJ55" s="412" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AK55" s="409"/>
       <c r="AL55" s="409"/>
@@ -36319,7 +35999,7 @@
       <c r="BL55" s="397"/>
       <c r="BM55" s="396"/>
       <c r="BN55" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO55" s="416"/>
       <c r="BP55" s="416"/>
@@ -36376,7 +36056,7 @@
       <c r="AH56" s="405"/>
       <c r="AI56" s="407"/>
       <c r="AJ56" s="422" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AK56" s="423"/>
       <c r="AL56" s="423"/>
@@ -36410,7 +36090,7 @@
       <c r="BL56" s="397"/>
       <c r="BM56" s="396"/>
       <c r="BN56" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO56" s="416"/>
       <c r="BP56" s="416"/>
@@ -36441,13 +36121,13 @@
       <c r="F57" s="398"/>
       <c r="G57" s="398"/>
       <c r="H57" s="411" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I57" s="411"/>
       <c r="J57" s="411"/>
       <c r="K57" s="411"/>
       <c r="L57" s="411" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M57" s="411"/>
       <c r="N57" s="411"/>
@@ -36473,7 +36153,7 @@
       <c r="AH57" s="405"/>
       <c r="AI57" s="407"/>
       <c r="AJ57" s="412" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AK57" s="413"/>
       <c r="AL57" s="413"/>
@@ -36507,7 +36187,7 @@
       <c r="BL57" s="397"/>
       <c r="BM57" s="396"/>
       <c r="BN57" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO57" s="416"/>
       <c r="BP57" s="416"/>
@@ -36540,13 +36220,13 @@
       <c r="F58" s="401"/>
       <c r="G58" s="402"/>
       <c r="H58" s="411" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I58" s="411"/>
       <c r="J58" s="411"/>
       <c r="K58" s="411"/>
       <c r="L58" s="411" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M58" s="411"/>
       <c r="N58" s="411"/>
@@ -36572,7 +36252,7 @@
       <c r="AH58" s="405"/>
       <c r="AI58" s="407"/>
       <c r="AJ58" s="412" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AK58" s="413"/>
       <c r="AL58" s="413"/>
@@ -36606,7 +36286,7 @@
       <c r="BL58" s="397"/>
       <c r="BM58" s="396"/>
       <c r="BN58" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO58" s="416"/>
       <c r="BP58" s="416"/>
@@ -36637,13 +36317,13 @@
       <c r="F59" s="404"/>
       <c r="G59" s="405"/>
       <c r="H59" s="411" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I59" s="411"/>
       <c r="J59" s="411"/>
       <c r="K59" s="411"/>
       <c r="L59" s="411" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M59" s="411"/>
       <c r="N59" s="411"/>
@@ -36669,7 +36349,7 @@
       <c r="AH59" s="405"/>
       <c r="AI59" s="407"/>
       <c r="AJ59" s="412" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AK59" s="413"/>
       <c r="AL59" s="413"/>
@@ -36703,7 +36383,7 @@
       <c r="BL59" s="397"/>
       <c r="BM59" s="396"/>
       <c r="BN59" s="415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO59" s="416"/>
       <c r="BP59" s="416"/>
@@ -36734,13 +36414,13 @@
       <c r="F60" s="404"/>
       <c r="G60" s="405"/>
       <c r="H60" s="472" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I60" s="472"/>
       <c r="J60" s="472"/>
       <c r="K60" s="472"/>
       <c r="L60" s="472" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M60" s="472"/>
       <c r="N60" s="472"/>
@@ -36766,7 +36446,7 @@
       <c r="AH60" s="405"/>
       <c r="AI60" s="407"/>
       <c r="AJ60" s="474" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AK60" s="475"/>
       <c r="AL60" s="475"/>
@@ -36795,12 +36475,12 @@
       <c r="BI60" s="419"/>
       <c r="BJ60" s="420"/>
       <c r="BK60" s="400" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BL60" s="401"/>
       <c r="BM60" s="402"/>
       <c r="BN60" s="477" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BO60" s="478"/>
       <c r="BP60" s="478"/>
@@ -44799,8 +44479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DC58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="AD39" sqref="AD39:BA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="3.140625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -46913,7 +46593,7 @@
       <c r="BJ19" s="495"/>
       <c r="BK19" s="495"/>
       <c r="BL19" s="584" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BM19" s="585"/>
       <c r="BN19" s="586"/>
@@ -47018,7 +46698,7 @@
       <c r="AZ20" s="591"/>
       <c r="BA20" s="592"/>
       <c r="BB20" s="551" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC20" s="552"/>
       <c r="BD20" s="553"/>
@@ -47034,7 +46714,7 @@
       <c r="BJ20" s="496"/>
       <c r="BK20" s="496"/>
       <c r="BL20" s="512" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BM20" s="512"/>
       <c r="BN20" s="512"/>
@@ -47127,7 +46807,7 @@
       <c r="AZ21" s="588"/>
       <c r="BA21" s="589"/>
       <c r="BB21" s="551" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC21" s="552"/>
       <c r="BD21" s="553"/>
@@ -47143,7 +46823,7 @@
       <c r="BJ21" s="496"/>
       <c r="BK21" s="496"/>
       <c r="BL21" s="512" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BM21" s="512"/>
       <c r="BN21" s="512"/>
@@ -47236,7 +46916,7 @@
       <c r="AZ22" s="588"/>
       <c r="BA22" s="589"/>
       <c r="BB22" s="551" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC22" s="552"/>
       <c r="BD22" s="553"/>
@@ -47252,7 +46932,7 @@
       <c r="BJ22" s="496"/>
       <c r="BK22" s="496"/>
       <c r="BL22" s="512" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BM22" s="512"/>
       <c r="BN22" s="512"/>
@@ -47345,7 +47025,7 @@
       <c r="AZ23" s="588"/>
       <c r="BA23" s="589"/>
       <c r="BB23" s="551" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="BC23" s="552"/>
       <c r="BD23" s="553"/>
@@ -47361,7 +47041,7 @@
       <c r="BJ23" s="496"/>
       <c r="BK23" s="496"/>
       <c r="BL23" s="512" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BM23" s="512"/>
       <c r="BN23" s="512"/>
@@ -47454,7 +47134,7 @@
       <c r="AZ24" s="588"/>
       <c r="BA24" s="589"/>
       <c r="BB24" s="551" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BC24" s="552"/>
       <c r="BD24" s="553"/>
@@ -47563,7 +47243,7 @@
       <c r="AZ25" s="588"/>
       <c r="BA25" s="589"/>
       <c r="BB25" s="551" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BC25" s="552"/>
       <c r="BD25" s="553"/>
@@ -47672,7 +47352,7 @@
       <c r="AZ26" s="588"/>
       <c r="BA26" s="589"/>
       <c r="BB26" s="551" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BC26" s="552"/>
       <c r="BD26" s="553"/>
@@ -47688,7 +47368,7 @@
       <c r="BJ26" s="496"/>
       <c r="BK26" s="496"/>
       <c r="BL26" s="512" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BM26" s="512"/>
       <c r="BN26" s="512"/>
@@ -47783,7 +47463,7 @@
       <c r="AZ27" s="588"/>
       <c r="BA27" s="589"/>
       <c r="BB27" s="551" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC27" s="552"/>
       <c r="BD27" s="553"/>
@@ -47892,7 +47572,7 @@
       <c r="AZ28" s="588"/>
       <c r="BA28" s="589"/>
       <c r="BB28" s="551" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BC28" s="552"/>
       <c r="BD28" s="553"/>
@@ -48001,7 +47681,7 @@
       <c r="AZ29" s="588"/>
       <c r="BA29" s="589"/>
       <c r="BB29" s="551" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC29" s="552"/>
       <c r="BD29" s="553"/>
@@ -48017,7 +47697,7 @@
       <c r="BJ29" s="496"/>
       <c r="BK29" s="496"/>
       <c r="BL29" s="512" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BM29" s="512"/>
       <c r="BN29" s="512"/>
@@ -48110,7 +47790,7 @@
       <c r="AZ30" s="588"/>
       <c r="BA30" s="589"/>
       <c r="BB30" s="551" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC30" s="552"/>
       <c r="BD30" s="553"/>
@@ -48227,7 +47907,7 @@
       <c r="AZ31" s="588"/>
       <c r="BA31" s="589"/>
       <c r="BB31" s="551" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC31" s="552"/>
       <c r="BD31" s="553"/>
@@ -48243,7 +47923,7 @@
       <c r="BJ31" s="549"/>
       <c r="BK31" s="550"/>
       <c r="BL31" s="512" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BM31" s="512"/>
       <c r="BN31" s="512"/>
@@ -48336,7 +48016,7 @@
       <c r="AZ32" s="588"/>
       <c r="BA32" s="589"/>
       <c r="BB32" s="551" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC32" s="552"/>
       <c r="BD32" s="553"/>
@@ -48445,7 +48125,7 @@
       <c r="AZ33" s="588"/>
       <c r="BA33" s="589"/>
       <c r="BB33" s="551" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC33" s="552"/>
       <c r="BD33" s="553"/>
@@ -48461,7 +48141,7 @@
       <c r="BJ33" s="549"/>
       <c r="BK33" s="550"/>
       <c r="BL33" s="512" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BM33" s="512"/>
       <c r="BN33" s="512"/>
@@ -48558,7 +48238,7 @@
       <c r="AZ34" s="507"/>
       <c r="BA34" s="508"/>
       <c r="BB34" s="509" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC34" s="510"/>
       <c r="BD34" s="511"/>
@@ -48669,7 +48349,7 @@
       <c r="AZ35" s="507"/>
       <c r="BA35" s="508"/>
       <c r="BB35" s="509" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC35" s="510"/>
       <c r="BD35" s="511"/>
@@ -48685,7 +48365,7 @@
       <c r="BJ35" s="480"/>
       <c r="BK35" s="480"/>
       <c r="BL35" s="512" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BM35" s="512"/>
       <c r="BN35" s="512"/>
@@ -48780,7 +48460,7 @@
       <c r="AZ36" s="507"/>
       <c r="BA36" s="508"/>
       <c r="BB36" s="509" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC36" s="510"/>
       <c r="BD36" s="511"/>
@@ -48796,7 +48476,7 @@
       <c r="BJ36" s="480"/>
       <c r="BK36" s="480"/>
       <c r="BL36" s="512" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BM36" s="512"/>
       <c r="BN36" s="512"/>
@@ -48891,7 +48571,7 @@
       <c r="AZ37" s="507"/>
       <c r="BA37" s="508"/>
       <c r="BB37" s="509" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC37" s="510"/>
       <c r="BD37" s="511"/>
@@ -49002,7 +48682,7 @@
       <c r="AZ38" s="507"/>
       <c r="BA38" s="508"/>
       <c r="BB38" s="509" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC38" s="510"/>
       <c r="BD38" s="511"/>
@@ -49018,7 +48698,7 @@
       <c r="BJ38" s="480"/>
       <c r="BK38" s="480"/>
       <c r="BL38" s="512" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BM38" s="512"/>
       <c r="BN38" s="512"/>
@@ -49113,7 +48793,7 @@
       <c r="AZ39" s="507"/>
       <c r="BA39" s="508"/>
       <c r="BB39" s="509" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC39" s="510"/>
       <c r="BD39" s="511"/>
@@ -49124,7 +48804,7 @@
       <c r="BG39" s="510"/>
       <c r="BH39" s="511"/>
       <c r="BI39" s="491" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BJ39" s="492"/>
       <c r="BK39" s="493"/>
@@ -49134,7 +48814,7 @@
       <c r="BM39" s="512"/>
       <c r="BN39" s="512"/>
       <c r="BO39" s="415" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BP39" s="416"/>
       <c r="BQ39" s="416"/>
@@ -49226,7 +48906,7 @@
       <c r="AZ40" s="507"/>
       <c r="BA40" s="508"/>
       <c r="BB40" s="509" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC40" s="510"/>
       <c r="BD40" s="511"/>
@@ -49242,7 +48922,7 @@
       <c r="BJ40" s="480"/>
       <c r="BK40" s="480"/>
       <c r="BL40" s="512" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BM40" s="512"/>
       <c r="BN40" s="512"/>
@@ -49339,7 +49019,7 @@
       <c r="AZ41" s="507"/>
       <c r="BA41" s="508"/>
       <c r="BB41" s="509" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC41" s="510"/>
       <c r="BD41" s="511"/>
@@ -49355,7 +49035,7 @@
       <c r="BJ41" s="480"/>
       <c r="BK41" s="480"/>
       <c r="BL41" s="512" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BM41" s="512"/>
       <c r="BN41" s="512"/>
@@ -49450,7 +49130,7 @@
       <c r="AZ42" s="507"/>
       <c r="BA42" s="508"/>
       <c r="BB42" s="509" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC42" s="510"/>
       <c r="BD42" s="511"/>
@@ -49537,7 +49217,7 @@
       <c r="AB43" s="517"/>
       <c r="AC43" s="518"/>
       <c r="AD43" s="506" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AE43" s="507"/>
       <c r="AF43" s="507"/>
@@ -49563,7 +49243,7 @@
       <c r="AZ43" s="507"/>
       <c r="BA43" s="508"/>
       <c r="BB43" s="509" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC43" s="510"/>
       <c r="BD43" s="511"/>
@@ -49574,17 +49254,17 @@
       <c r="BG43" s="510"/>
       <c r="BH43" s="511"/>
       <c r="BI43" s="494" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BJ43" s="494"/>
       <c r="BK43" s="494"/>
       <c r="BL43" s="564" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="BM43" s="564"/>
       <c r="BN43" s="564"/>
       <c r="BO43" s="425" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BP43" s="425"/>
       <c r="BQ43" s="425"/>
@@ -49676,7 +49356,7 @@
       <c r="AZ44" s="507"/>
       <c r="BA44" s="508"/>
       <c r="BB44" s="509" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BC44" s="510"/>
       <c r="BD44" s="511"/>
@@ -49791,7 +49471,7 @@
       <c r="AZ45" s="507"/>
       <c r="BA45" s="508"/>
       <c r="BB45" s="509" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BC45" s="510"/>
       <c r="BD45" s="511"/>
@@ -49902,7 +49582,7 @@
       <c r="AZ46" s="507"/>
       <c r="BA46" s="508"/>
       <c r="BB46" s="509" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC46" s="510"/>
       <c r="BD46" s="511"/>
@@ -50013,7 +49693,7 @@
       <c r="AZ47" s="507"/>
       <c r="BA47" s="508"/>
       <c r="BB47" s="509" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC47" s="510"/>
       <c r="BD47" s="511"/>
@@ -50029,7 +49709,7 @@
       <c r="BJ47" s="480"/>
       <c r="BK47" s="480"/>
       <c r="BL47" s="512" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BM47" s="512"/>
       <c r="BN47" s="512"/>
@@ -50124,7 +49804,7 @@
       <c r="AZ48" s="507"/>
       <c r="BA48" s="508"/>
       <c r="BB48" s="509" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC48" s="510"/>
       <c r="BD48" s="511"/>
@@ -50140,7 +49820,7 @@
       <c r="BJ48" s="481"/>
       <c r="BK48" s="481"/>
       <c r="BL48" s="512" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BM48" s="512"/>
       <c r="BN48" s="512"/>
@@ -50215,7 +49895,7 @@
       <c r="AB49" s="542"/>
       <c r="AC49" s="543"/>
       <c r="AD49" s="506" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE49" s="507"/>
       <c r="AF49" s="507"/>
@@ -50241,7 +49921,7 @@
       <c r="AZ49" s="507"/>
       <c r="BA49" s="508"/>
       <c r="BB49" s="509" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC49" s="510"/>
       <c r="BD49" s="511"/>
@@ -50257,7 +49937,7 @@
       <c r="BJ49" s="480"/>
       <c r="BK49" s="480"/>
       <c r="BL49" s="512" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BM49" s="512"/>
       <c r="BN49" s="512"/>
@@ -50364,7 +50044,7 @@
       <c r="AZ50" s="507"/>
       <c r="BA50" s="508"/>
       <c r="BB50" s="509" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BC50" s="510"/>
       <c r="BD50" s="511"/>
@@ -50477,7 +50157,7 @@
       <c r="AZ51" s="507"/>
       <c r="BA51" s="508"/>
       <c r="BB51" s="509" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC51" s="510"/>
       <c r="BD51" s="511"/>
@@ -50493,7 +50173,7 @@
       <c r="BJ51" s="483"/>
       <c r="BK51" s="484"/>
       <c r="BL51" s="512" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BM51" s="512"/>
       <c r="BN51" s="512"/>
@@ -50590,7 +50270,7 @@
       <c r="AZ52" s="507"/>
       <c r="BA52" s="508"/>
       <c r="BB52" s="509" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC52" s="510"/>
       <c r="BD52" s="511"/>
@@ -50606,7 +50286,7 @@
       <c r="BJ52" s="483"/>
       <c r="BK52" s="484"/>
       <c r="BL52" s="512" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BM52" s="512"/>
       <c r="BN52" s="512"/>
@@ -50705,7 +50385,7 @@
       <c r="AZ53" s="507"/>
       <c r="BA53" s="508"/>
       <c r="BB53" s="509" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC53" s="510"/>
       <c r="BD53" s="511"/>
@@ -50721,7 +50401,7 @@
       <c r="BJ53" s="483"/>
       <c r="BK53" s="484"/>
       <c r="BL53" s="512" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BM53" s="512"/>
       <c r="BN53" s="512"/>
@@ -50822,7 +50502,7 @@
       <c r="AZ54" s="596"/>
       <c r="BA54" s="597"/>
       <c r="BB54" s="522" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BC54" s="523"/>
       <c r="BD54" s="524"/>
@@ -51708,7 +51388,7 @@
       <c r="BJ7" s="495"/>
       <c r="BK7" s="495"/>
       <c r="BL7" s="495" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BM7" s="495"/>
       <c r="BN7" s="495"/>
@@ -51827,7 +51507,7 @@
       <c r="BJ8" s="619"/>
       <c r="BK8" s="619"/>
       <c r="BL8" s="619" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BM8" s="619"/>
       <c r="BN8" s="619"/>
@@ -51995,7 +51675,7 @@
       <c r="AB10" s="641"/>
       <c r="AC10" s="641"/>
       <c r="AD10" s="641" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AE10" s="641"/>
       <c r="AF10" s="641"/>
@@ -52037,7 +51717,7 @@
       <c r="BJ10" s="619"/>
       <c r="BK10" s="619"/>
       <c r="BL10" s="619" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BM10" s="619"/>
       <c r="BN10" s="619"/>
@@ -52831,7 +52511,7 @@
       <c r="AB18" s="641"/>
       <c r="AC18" s="641"/>
       <c r="AD18" s="631" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AE18" s="632"/>
       <c r="AF18" s="632"/>
@@ -53544,8 +53224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:AC12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="BL13" sqref="BL13:CP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="3.140625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -54094,7 +53774,9 @@
       </c>
       <c r="BJ7" s="619"/>
       <c r="BK7" s="619"/>
-      <c r="BL7" s="547"/>
+      <c r="BL7" s="547" t="s">
+        <v>676</v>
+      </c>
       <c r="BM7" s="547"/>
       <c r="BN7" s="547"/>
       <c r="BO7" s="547"/>
@@ -54300,7 +53982,9 @@
       </c>
       <c r="BJ9" s="619"/>
       <c r="BK9" s="619"/>
-      <c r="BL9" s="547"/>
+      <c r="BL9" s="547" t="s">
+        <v>677</v>
+      </c>
       <c r="BM9" s="547"/>
       <c r="BN9" s="547"/>
       <c r="BO9" s="547"/>
@@ -54506,7 +54190,9 @@
       </c>
       <c r="BJ11" s="619"/>
       <c r="BK11" s="619"/>
-      <c r="BL11" s="547"/>
+      <c r="BL11" s="547" t="s">
+        <v>678</v>
+      </c>
       <c r="BM11" s="547"/>
       <c r="BN11" s="547"/>
       <c r="BO11" s="547"/>
@@ -54715,7 +54401,7 @@
       <c r="BJ13" s="614"/>
       <c r="BK13" s="615"/>
       <c r="BL13" s="620" t="s">
-        <v>420</v>
+        <v>679</v>
       </c>
       <c r="BM13" s="621"/>
       <c r="BN13" s="621"/>

--- a/CSS_テスト仕様書.xlsx
+++ b/CSS_テスト仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="テスト観点" sheetId="2" r:id="rId1"/>
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="745">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -7502,6 +7502,33 @@
       <t>セッテ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン期間のテスト</t>
+    <rPh sb="4" eb="6">
+      <t>キカn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設定したログイン期間を過ぎてからページ遷移した場合にログアウトすることを確認する。
+lastLoginが更新されることを確認する。</t>
+    <rPh sb="0" eb="2">
+      <t>セッテ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スg</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カk</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コウシn</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カk</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -10870,8 +10897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:BN162"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27:BD28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="W132" sqref="W132:BD133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="3.140625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19462,54 +19489,54 @@
       <c r="J130" s="289"/>
       <c r="K130" s="289"/>
       <c r="L130" s="290"/>
-      <c r="M130" s="276" t="s">
+      <c r="M130" s="275" t="s">
         <v>308</v>
       </c>
-      <c r="N130" s="277"/>
-      <c r="O130" s="277"/>
-      <c r="P130" s="277"/>
-      <c r="Q130" s="277"/>
-      <c r="R130" s="277"/>
-      <c r="S130" s="277"/>
-      <c r="T130" s="277"/>
-      <c r="U130" s="277"/>
-      <c r="V130" s="278"/>
-      <c r="W130" s="276" t="s">
+      <c r="N130" s="275"/>
+      <c r="O130" s="275"/>
+      <c r="P130" s="275"/>
+      <c r="Q130" s="275"/>
+      <c r="R130" s="275"/>
+      <c r="S130" s="275"/>
+      <c r="T130" s="275"/>
+      <c r="U130" s="275"/>
+      <c r="V130" s="275"/>
+      <c r="W130" s="275" t="s">
         <v>309</v>
       </c>
-      <c r="X130" s="277"/>
-      <c r="Y130" s="277"/>
-      <c r="Z130" s="277"/>
-      <c r="AA130" s="277"/>
-      <c r="AB130" s="277"/>
-      <c r="AC130" s="277"/>
-      <c r="AD130" s="277"/>
-      <c r="AE130" s="277"/>
-      <c r="AF130" s="277"/>
-      <c r="AG130" s="277"/>
-      <c r="AH130" s="277"/>
-      <c r="AI130" s="277"/>
-      <c r="AJ130" s="277"/>
-      <c r="AK130" s="277"/>
-      <c r="AL130" s="277"/>
-      <c r="AM130" s="277"/>
-      <c r="AN130" s="277"/>
-      <c r="AO130" s="277"/>
-      <c r="AP130" s="277"/>
-      <c r="AQ130" s="277"/>
-      <c r="AR130" s="277"/>
-      <c r="AS130" s="277"/>
-      <c r="AT130" s="277"/>
-      <c r="AU130" s="277"/>
-      <c r="AV130" s="277"/>
-      <c r="AW130" s="277"/>
-      <c r="AX130" s="277"/>
-      <c r="AY130" s="277"/>
-      <c r="AZ130" s="277"/>
-      <c r="BA130" s="277"/>
-      <c r="BB130" s="277"/>
-      <c r="BC130" s="277"/>
-      <c r="BD130" s="278"/>
+      <c r="X130" s="275"/>
+      <c r="Y130" s="275"/>
+      <c r="Z130" s="275"/>
+      <c r="AA130" s="275"/>
+      <c r="AB130" s="275"/>
+      <c r="AC130" s="275"/>
+      <c r="AD130" s="275"/>
+      <c r="AE130" s="275"/>
+      <c r="AF130" s="275"/>
+      <c r="AG130" s="275"/>
+      <c r="AH130" s="275"/>
+      <c r="AI130" s="275"/>
+      <c r="AJ130" s="275"/>
+      <c r="AK130" s="275"/>
+      <c r="AL130" s="275"/>
+      <c r="AM130" s="275"/>
+      <c r="AN130" s="275"/>
+      <c r="AO130" s="275"/>
+      <c r="AP130" s="275"/>
+      <c r="AQ130" s="275"/>
+      <c r="AR130" s="275"/>
+      <c r="AS130" s="275"/>
+      <c r="AT130" s="275"/>
+      <c r="AU130" s="275"/>
+      <c r="AV130" s="275"/>
+      <c r="AW130" s="275"/>
+      <c r="AX130" s="275"/>
+      <c r="AY130" s="275"/>
+      <c r="AZ130" s="275"/>
+      <c r="BA130" s="275"/>
+      <c r="BB130" s="275"/>
+      <c r="BC130" s="275"/>
+      <c r="BD130" s="275"/>
       <c r="BE130" s="306"/>
       <c r="BF130" s="307"/>
       <c r="BG130" s="307"/>
@@ -19532,50 +19559,50 @@
       <c r="J131" s="289"/>
       <c r="K131" s="289"/>
       <c r="L131" s="290"/>
-      <c r="M131" s="279"/>
-      <c r="N131" s="280"/>
-      <c r="O131" s="280"/>
-      <c r="P131" s="280"/>
-      <c r="Q131" s="280"/>
-      <c r="R131" s="280"/>
-      <c r="S131" s="280"/>
-      <c r="T131" s="280"/>
-      <c r="U131" s="280"/>
-      <c r="V131" s="281"/>
-      <c r="W131" s="279"/>
-      <c r="X131" s="280"/>
-      <c r="Y131" s="280"/>
-      <c r="Z131" s="280"/>
-      <c r="AA131" s="280"/>
-      <c r="AB131" s="280"/>
-      <c r="AC131" s="280"/>
-      <c r="AD131" s="280"/>
-      <c r="AE131" s="280"/>
-      <c r="AF131" s="280"/>
-      <c r="AG131" s="280"/>
-      <c r="AH131" s="280"/>
-      <c r="AI131" s="280"/>
-      <c r="AJ131" s="280"/>
-      <c r="AK131" s="280"/>
-      <c r="AL131" s="280"/>
-      <c r="AM131" s="280"/>
-      <c r="AN131" s="280"/>
-      <c r="AO131" s="280"/>
-      <c r="AP131" s="280"/>
-      <c r="AQ131" s="280"/>
-      <c r="AR131" s="280"/>
-      <c r="AS131" s="280"/>
-      <c r="AT131" s="280"/>
-      <c r="AU131" s="280"/>
-      <c r="AV131" s="280"/>
-      <c r="AW131" s="280"/>
-      <c r="AX131" s="280"/>
-      <c r="AY131" s="280"/>
-      <c r="AZ131" s="280"/>
-      <c r="BA131" s="280"/>
-      <c r="BB131" s="280"/>
-      <c r="BC131" s="280"/>
-      <c r="BD131" s="281"/>
+      <c r="M131" s="275"/>
+      <c r="N131" s="275"/>
+      <c r="O131" s="275"/>
+      <c r="P131" s="275"/>
+      <c r="Q131" s="275"/>
+      <c r="R131" s="275"/>
+      <c r="S131" s="275"/>
+      <c r="T131" s="275"/>
+      <c r="U131" s="275"/>
+      <c r="V131" s="275"/>
+      <c r="W131" s="275"/>
+      <c r="X131" s="275"/>
+      <c r="Y131" s="275"/>
+      <c r="Z131" s="275"/>
+      <c r="AA131" s="275"/>
+      <c r="AB131" s="275"/>
+      <c r="AC131" s="275"/>
+      <c r="AD131" s="275"/>
+      <c r="AE131" s="275"/>
+      <c r="AF131" s="275"/>
+      <c r="AG131" s="275"/>
+      <c r="AH131" s="275"/>
+      <c r="AI131" s="275"/>
+      <c r="AJ131" s="275"/>
+      <c r="AK131" s="275"/>
+      <c r="AL131" s="275"/>
+      <c r="AM131" s="275"/>
+      <c r="AN131" s="275"/>
+      <c r="AO131" s="275"/>
+      <c r="AP131" s="275"/>
+      <c r="AQ131" s="275"/>
+      <c r="AR131" s="275"/>
+      <c r="AS131" s="275"/>
+      <c r="AT131" s="275"/>
+      <c r="AU131" s="275"/>
+      <c r="AV131" s="275"/>
+      <c r="AW131" s="275"/>
+      <c r="AX131" s="275"/>
+      <c r="AY131" s="275"/>
+      <c r="AZ131" s="275"/>
+      <c r="BA131" s="275"/>
+      <c r="BB131" s="275"/>
+      <c r="BC131" s="275"/>
+      <c r="BD131" s="275"/>
       <c r="BE131" s="306"/>
       <c r="BF131" s="307"/>
       <c r="BG131" s="307"/>
@@ -19598,50 +19625,54 @@
       <c r="J132" s="289"/>
       <c r="K132" s="289"/>
       <c r="L132" s="290"/>
-      <c r="M132" s="279"/>
-      <c r="N132" s="280"/>
-      <c r="O132" s="280"/>
-      <c r="P132" s="280"/>
-      <c r="Q132" s="280"/>
-      <c r="R132" s="280"/>
-      <c r="S132" s="280"/>
-      <c r="T132" s="280"/>
-      <c r="U132" s="280"/>
-      <c r="V132" s="281"/>
-      <c r="W132" s="279"/>
-      <c r="X132" s="280"/>
-      <c r="Y132" s="280"/>
-      <c r="Z132" s="280"/>
-      <c r="AA132" s="280"/>
-      <c r="AB132" s="280"/>
-      <c r="AC132" s="280"/>
-      <c r="AD132" s="280"/>
-      <c r="AE132" s="280"/>
-      <c r="AF132" s="280"/>
-      <c r="AG132" s="280"/>
-      <c r="AH132" s="280"/>
-      <c r="AI132" s="280"/>
-      <c r="AJ132" s="280"/>
-      <c r="AK132" s="280"/>
-      <c r="AL132" s="280"/>
-      <c r="AM132" s="280"/>
-      <c r="AN132" s="280"/>
-      <c r="AO132" s="280"/>
-      <c r="AP132" s="280"/>
-      <c r="AQ132" s="280"/>
-      <c r="AR132" s="280"/>
-      <c r="AS132" s="280"/>
-      <c r="AT132" s="280"/>
-      <c r="AU132" s="280"/>
-      <c r="AV132" s="280"/>
-      <c r="AW132" s="280"/>
-      <c r="AX132" s="280"/>
-      <c r="AY132" s="280"/>
-      <c r="AZ132" s="280"/>
-      <c r="BA132" s="280"/>
-      <c r="BB132" s="280"/>
-      <c r="BC132" s="280"/>
-      <c r="BD132" s="281"/>
+      <c r="M132" s="275" t="s">
+        <v>743</v>
+      </c>
+      <c r="N132" s="275"/>
+      <c r="O132" s="275"/>
+      <c r="P132" s="275"/>
+      <c r="Q132" s="275"/>
+      <c r="R132" s="275"/>
+      <c r="S132" s="275"/>
+      <c r="T132" s="275"/>
+      <c r="U132" s="275"/>
+      <c r="V132" s="275"/>
+      <c r="W132" s="275" t="s">
+        <v>744</v>
+      </c>
+      <c r="X132" s="275"/>
+      <c r="Y132" s="275"/>
+      <c r="Z132" s="275"/>
+      <c r="AA132" s="275"/>
+      <c r="AB132" s="275"/>
+      <c r="AC132" s="275"/>
+      <c r="AD132" s="275"/>
+      <c r="AE132" s="275"/>
+      <c r="AF132" s="275"/>
+      <c r="AG132" s="275"/>
+      <c r="AH132" s="275"/>
+      <c r="AI132" s="275"/>
+      <c r="AJ132" s="275"/>
+      <c r="AK132" s="275"/>
+      <c r="AL132" s="275"/>
+      <c r="AM132" s="275"/>
+      <c r="AN132" s="275"/>
+      <c r="AO132" s="275"/>
+      <c r="AP132" s="275"/>
+      <c r="AQ132" s="275"/>
+      <c r="AR132" s="275"/>
+      <c r="AS132" s="275"/>
+      <c r="AT132" s="275"/>
+      <c r="AU132" s="275"/>
+      <c r="AV132" s="275"/>
+      <c r="AW132" s="275"/>
+      <c r="AX132" s="275"/>
+      <c r="AY132" s="275"/>
+      <c r="AZ132" s="275"/>
+      <c r="BA132" s="275"/>
+      <c r="BB132" s="275"/>
+      <c r="BC132" s="275"/>
+      <c r="BD132" s="275"/>
       <c r="BE132" s="306"/>
       <c r="BF132" s="307"/>
       <c r="BG132" s="307"/>
@@ -19654,70 +19685,70 @@
       <c r="BN132" s="308"/>
     </row>
     <row r="133" spans="3:66" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="291"/>
-      <c r="D133" s="292"/>
-      <c r="E133" s="292"/>
-      <c r="F133" s="292"/>
-      <c r="G133" s="292"/>
-      <c r="H133" s="292"/>
-      <c r="I133" s="292"/>
-      <c r="J133" s="292"/>
-      <c r="K133" s="292"/>
-      <c r="L133" s="293"/>
-      <c r="M133" s="282"/>
-      <c r="N133" s="283"/>
-      <c r="O133" s="283"/>
-      <c r="P133" s="283"/>
-      <c r="Q133" s="283"/>
-      <c r="R133" s="283"/>
-      <c r="S133" s="283"/>
-      <c r="T133" s="283"/>
-      <c r="U133" s="283"/>
-      <c r="V133" s="284"/>
-      <c r="W133" s="282"/>
-      <c r="X133" s="283"/>
-      <c r="Y133" s="283"/>
-      <c r="Z133" s="283"/>
-      <c r="AA133" s="283"/>
-      <c r="AB133" s="283"/>
-      <c r="AC133" s="283"/>
-      <c r="AD133" s="283"/>
-      <c r="AE133" s="283"/>
-      <c r="AF133" s="283"/>
-      <c r="AG133" s="283"/>
-      <c r="AH133" s="283"/>
-      <c r="AI133" s="283"/>
-      <c r="AJ133" s="283"/>
-      <c r="AK133" s="283"/>
-      <c r="AL133" s="283"/>
-      <c r="AM133" s="283"/>
-      <c r="AN133" s="283"/>
-      <c r="AO133" s="283"/>
-      <c r="AP133" s="283"/>
-      <c r="AQ133" s="283"/>
-      <c r="AR133" s="283"/>
-      <c r="AS133" s="283"/>
-      <c r="AT133" s="283"/>
-      <c r="AU133" s="283"/>
-      <c r="AV133" s="283"/>
-      <c r="AW133" s="283"/>
-      <c r="AX133" s="283"/>
-      <c r="AY133" s="283"/>
-      <c r="AZ133" s="283"/>
-      <c r="BA133" s="283"/>
-      <c r="BB133" s="283"/>
-      <c r="BC133" s="283"/>
-      <c r="BD133" s="284"/>
-      <c r="BE133" s="309"/>
-      <c r="BF133" s="310"/>
-      <c r="BG133" s="310"/>
-      <c r="BH133" s="310"/>
-      <c r="BI133" s="310"/>
-      <c r="BJ133" s="310"/>
-      <c r="BK133" s="310"/>
-      <c r="BL133" s="310"/>
-      <c r="BM133" s="310"/>
-      <c r="BN133" s="311"/>
+      <c r="C133" s="288"/>
+      <c r="D133" s="289"/>
+      <c r="E133" s="289"/>
+      <c r="F133" s="289"/>
+      <c r="G133" s="289"/>
+      <c r="H133" s="289"/>
+      <c r="I133" s="289"/>
+      <c r="J133" s="289"/>
+      <c r="K133" s="289"/>
+      <c r="L133" s="290"/>
+      <c r="M133" s="275"/>
+      <c r="N133" s="275"/>
+      <c r="O133" s="275"/>
+      <c r="P133" s="275"/>
+      <c r="Q133" s="275"/>
+      <c r="R133" s="275"/>
+      <c r="S133" s="275"/>
+      <c r="T133" s="275"/>
+      <c r="U133" s="275"/>
+      <c r="V133" s="275"/>
+      <c r="W133" s="275"/>
+      <c r="X133" s="275"/>
+      <c r="Y133" s="275"/>
+      <c r="Z133" s="275"/>
+      <c r="AA133" s="275"/>
+      <c r="AB133" s="275"/>
+      <c r="AC133" s="275"/>
+      <c r="AD133" s="275"/>
+      <c r="AE133" s="275"/>
+      <c r="AF133" s="275"/>
+      <c r="AG133" s="275"/>
+      <c r="AH133" s="275"/>
+      <c r="AI133" s="275"/>
+      <c r="AJ133" s="275"/>
+      <c r="AK133" s="275"/>
+      <c r="AL133" s="275"/>
+      <c r="AM133" s="275"/>
+      <c r="AN133" s="275"/>
+      <c r="AO133" s="275"/>
+      <c r="AP133" s="275"/>
+      <c r="AQ133" s="275"/>
+      <c r="AR133" s="275"/>
+      <c r="AS133" s="275"/>
+      <c r="AT133" s="275"/>
+      <c r="AU133" s="275"/>
+      <c r="AV133" s="275"/>
+      <c r="AW133" s="275"/>
+      <c r="AX133" s="275"/>
+      <c r="AY133" s="275"/>
+      <c r="AZ133" s="275"/>
+      <c r="BA133" s="275"/>
+      <c r="BB133" s="275"/>
+      <c r="BC133" s="275"/>
+      <c r="BD133" s="275"/>
+      <c r="BE133" s="306"/>
+      <c r="BF133" s="307"/>
+      <c r="BG133" s="307"/>
+      <c r="BH133" s="307"/>
+      <c r="BI133" s="307"/>
+      <c r="BJ133" s="307"/>
+      <c r="BK133" s="307"/>
+      <c r="BL133" s="307"/>
+      <c r="BM133" s="307"/>
+      <c r="BN133" s="308"/>
     </row>
     <row r="134" spans="3:66" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="285" t="s">
@@ -21688,7 +21719,11 @@
       <c r="BN162" s="274"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="137">
+    <mergeCell ref="M130:V131"/>
+    <mergeCell ref="M132:V133"/>
+    <mergeCell ref="W130:BD131"/>
+    <mergeCell ref="W132:BD133"/>
     <mergeCell ref="M80:V80"/>
     <mergeCell ref="M81:V81"/>
     <mergeCell ref="M82:V82"/>
@@ -21790,8 +21825,6 @@
     <mergeCell ref="W103:BD104"/>
     <mergeCell ref="W98:BD100"/>
     <mergeCell ref="W95:BD97"/>
-    <mergeCell ref="M130:V133"/>
-    <mergeCell ref="W130:BD133"/>
     <mergeCell ref="W105:BD107"/>
     <mergeCell ref="C134:L158"/>
     <mergeCell ref="M134:V149"/>
@@ -31743,8 +31776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:AU4"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15:AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2.28515625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -32984,8 +33017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7:AG7"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2.28515625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/CSS_テスト仕様書.xlsx
+++ b/CSS_テスト仕様書.xlsx
@@ -34543,8 +34543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AE2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -35091,7 +35091,7 @@
       <c r="AW8" s="363"/>
       <c r="AX8" s="364"/>
       <c r="AY8" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ8" s="366"/>
       <c r="BA8" s="367"/>
@@ -35170,7 +35170,7 @@
       <c r="AW9" s="363"/>
       <c r="AX9" s="364"/>
       <c r="AY9" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ9" s="366"/>
       <c r="BA9" s="367"/>
@@ -35397,7 +35397,7 @@
       <c r="AW12" s="363"/>
       <c r="AX12" s="364"/>
       <c r="AY12" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ12" s="366"/>
       <c r="BA12" s="367"/>
@@ -35476,7 +35476,7 @@
       <c r="AW13" s="363"/>
       <c r="AX13" s="364"/>
       <c r="AY13" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ13" s="366"/>
       <c r="BA13" s="367"/>
@@ -35557,7 +35557,7 @@
       <c r="AW14" s="363"/>
       <c r="AX14" s="364"/>
       <c r="AY14" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ14" s="366"/>
       <c r="BA14" s="367"/>
@@ -35638,7 +35638,7 @@
       <c r="AW15" s="363"/>
       <c r="AX15" s="364"/>
       <c r="AY15" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ15" s="366"/>
       <c r="BA15" s="367"/>
@@ -35717,7 +35717,7 @@
       <c r="AW16" s="363"/>
       <c r="AX16" s="364"/>
       <c r="AY16" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ16" s="366"/>
       <c r="BA16" s="367"/>
@@ -35796,7 +35796,7 @@
       <c r="AW17" s="363"/>
       <c r="AX17" s="364"/>
       <c r="AY17" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ17" s="366"/>
       <c r="BA17" s="367"/>
@@ -35946,7 +35946,7 @@
       <c r="AW19" s="363"/>
       <c r="AX19" s="364"/>
       <c r="AY19" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ19" s="366"/>
       <c r="BA19" s="367"/>
@@ -36025,7 +36025,7 @@
       <c r="AW20" s="363"/>
       <c r="AX20" s="364"/>
       <c r="AY20" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ20" s="366"/>
       <c r="BA20" s="367"/>
@@ -36177,7 +36177,7 @@
       <c r="AW22" s="363"/>
       <c r="AX22" s="364"/>
       <c r="AY22" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ22" s="366"/>
       <c r="BA22" s="367"/>
@@ -36256,7 +36256,7 @@
       <c r="AW23" s="363"/>
       <c r="AX23" s="364"/>
       <c r="AY23" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ23" s="366"/>
       <c r="BA23" s="367"/>
@@ -36335,7 +36335,7 @@
       <c r="AW24" s="363"/>
       <c r="AX24" s="364"/>
       <c r="AY24" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ24" s="366"/>
       <c r="BA24" s="367"/>
@@ -36414,7 +36414,7 @@
       <c r="AW25" s="363"/>
       <c r="AX25" s="364"/>
       <c r="AY25" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ25" s="366"/>
       <c r="BA25" s="367"/>
@@ -36493,7 +36493,7 @@
       <c r="AW26" s="363"/>
       <c r="AX26" s="364"/>
       <c r="AY26" s="365" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="AZ26" s="366"/>
       <c r="BA26" s="367"/>
@@ -36687,8 +36687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE149"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView showGridLines="0" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.3"/>
